--- a/Contender_Mins_and_Maxes.xlsx
+++ b/Contender_Mins_and_Maxes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthill\Documents\MS-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FE5ECA-C1D8-405E-B1B1-C141982CC01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6491777-89CA-44F9-92C7-74146BF375A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="2" activeTab="7" xr2:uid="{F1C71178-19A8-4726-96EB-5642A0E768D2}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="2" activeTab="2" xr2:uid="{F1C71178-19A8-4726-96EB-5642A0E768D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Case 1 Pareto" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="368">
   <si>
     <t>[[98934</t>
   </si>
@@ -300,144 +300,9 @@
     <t>[98909</t>
   </si>
   <si>
-    <t>[[88165</t>
-  </si>
-  <si>
-    <t>[95615</t>
-  </si>
-  <si>
-    <t>[97692</t>
-  </si>
-  <si>
-    <t>[99788</t>
-  </si>
-  <si>
-    <t>[81140</t>
-  </si>
-  <si>
-    <t>[90976</t>
-  </si>
-  <si>
-    <t>[98842</t>
-  </si>
-  <si>
-    <t>[77937</t>
-  </si>
-  <si>
-    <t>[90523</t>
-  </si>
-  <si>
-    <t>[97679</t>
-  </si>
-  <si>
-    <t>[92085</t>
-  </si>
-  <si>
-    <t>[99426</t>
-  </si>
-  <si>
-    <t>[99314</t>
-  </si>
-  <si>
-    <t>[100332</t>
-  </si>
-  <si>
-    <t>[100128</t>
-  </si>
-  <si>
-    <t>[97041</t>
-  </si>
-  <si>
-    <t>[99404</t>
-  </si>
-  <si>
-    <t>[85625</t>
-  </si>
-  <si>
-    <t>[97502</t>
-  </si>
-  <si>
-    <t>[88399</t>
-  </si>
-  <si>
-    <t>[97701</t>
-  </si>
-  <si>
-    <t>[91557</t>
-  </si>
-  <si>
-    <t>[99014</t>
-  </si>
-  <si>
-    <t>[91945</t>
-  </si>
-  <si>
-    <t>[98689</t>
-  </si>
-  <si>
-    <t>[99364</t>
-  </si>
-  <si>
-    <t>[97171</t>
-  </si>
-  <si>
-    <t>[92301</t>
-  </si>
-  <si>
-    <t>[94108</t>
-  </si>
-  <si>
-    <t>[88027</t>
-  </si>
-  <si>
-    <t>[95760</t>
-  </si>
-  <si>
-    <t>[100019</t>
-  </si>
-  <si>
-    <t>[98245</t>
-  </si>
-  <si>
-    <t>[98361</t>
-  </si>
-  <si>
-    <t>[97832</t>
-  </si>
-  <si>
-    <t>[100155</t>
-  </si>
-  <si>
-    <t>[98332</t>
-  </si>
-  <si>
-    <t>[88692</t>
-  </si>
-  <si>
-    <t>[88527</t>
-  </si>
-  <si>
-    <t>[97580</t>
-  </si>
-  <si>
     <t>[97559</t>
   </si>
   <si>
-    <t>[86508</t>
-  </si>
-  <si>
-    <t>[87138</t>
-  </si>
-  <si>
-    <t>[88488</t>
-  </si>
-  <si>
-    <t>[91067</t>
-  </si>
-  <si>
-    <t>[100162</t>
-  </si>
-  <si>
     <t>[[99798</t>
   </si>
   <si>
@@ -1132,6 +997,156 @@
   </si>
   <si>
     <t># Solutions:</t>
+  </si>
+  <si>
+    <t>[[190848</t>
+  </si>
+  <si>
+    <t>[198535</t>
+  </si>
+  <si>
+    <t>[200907</t>
+  </si>
+  <si>
+    <t>[199240</t>
+  </si>
+  <si>
+    <t>[193498</t>
+  </si>
+  <si>
+    <t>[170111</t>
+  </si>
+  <si>
+    <t>[198393</t>
+  </si>
+  <si>
+    <t>[187019</t>
+  </si>
+  <si>
+    <t>[186825</t>
+  </si>
+  <si>
+    <t>[195537</t>
+  </si>
+  <si>
+    <t>[182806</t>
+  </si>
+  <si>
+    <t>[200200</t>
+  </si>
+  <si>
+    <t>[185452</t>
+  </si>
+  <si>
+    <t>[199299</t>
+  </si>
+  <si>
+    <t>[198887</t>
+  </si>
+  <si>
+    <t>[200747</t>
+  </si>
+  <si>
+    <t>[199273</t>
+  </si>
+  <si>
+    <t>[200830</t>
+  </si>
+  <si>
+    <t>[195877</t>
+  </si>
+  <si>
+    <t>[200193</t>
+  </si>
+  <si>
+    <t>[180922</t>
+  </si>
+  <si>
+    <t>[187718</t>
+  </si>
+  <si>
+    <t>[197822</t>
+  </si>
+  <si>
+    <t>[199716</t>
+  </si>
+  <si>
+    <t>[177619</t>
+  </si>
+  <si>
+    <t>[199592</t>
+  </si>
+  <si>
+    <t>[189132</t>
+  </si>
+  <si>
+    <t>[198773</t>
+  </si>
+  <si>
+    <t>[194906</t>
+  </si>
+  <si>
+    <t>[192194</t>
+  </si>
+  <si>
+    <t>[187991</t>
+  </si>
+  <si>
+    <t>[194258</t>
+  </si>
+  <si>
+    <t>[191869</t>
+  </si>
+  <si>
+    <t>[194073</t>
+  </si>
+  <si>
+    <t>[188337</t>
+  </si>
+  <si>
+    <t>[190983</t>
+  </si>
+  <si>
+    <t>[173192</t>
+  </si>
+  <si>
+    <t>[200543</t>
+  </si>
+  <si>
+    <t>[188033</t>
+  </si>
+  <si>
+    <t>[195486</t>
+  </si>
+  <si>
+    <t>[190481</t>
+  </si>
+  <si>
+    <t>[190380</t>
+  </si>
+  <si>
+    <t>[170185</t>
+  </si>
+  <si>
+    <t>[192278</t>
+  </si>
+  <si>
+    <t>[200734</t>
+  </si>
+  <si>
+    <t>[197641</t>
+  </si>
+  <si>
+    <t>[190543</t>
+  </si>
+  <si>
+    <t>[200180</t>
+  </si>
+  <si>
+    <t>[195221</t>
+  </si>
+  <si>
+    <t>[200334</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1894,7 @@
         <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:114" x14ac:dyDescent="0.55000000000000004">
@@ -4925,7 +4940,7 @@
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.55000000000000004">
@@ -6995,10 +7010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C53DC7-2A64-4BD3-AE5E-F677B2D2C767}">
-  <dimension ref="A1:EH141"/>
+  <dimension ref="A1:ET153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7007,423 +7022,459 @@
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>318</v>
       </c>
       <c r="B1">
-        <v>23258.522051210999</v>
+        <v>23146.932643410499</v>
       </c>
       <c r="C1">
-        <v>5920.40602325078</v>
+        <v>5733.7762920553496</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>319</v>
       </c>
       <c r="E1">
-        <v>28218.179685794199</v>
+        <v>37382.333700285097</v>
       </c>
       <c r="F1">
-        <v>5356.3801795269601</v>
+        <v>4559.4030575090301</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>320</v>
       </c>
       <c r="H1">
-        <v>26212.635930253098</v>
+        <v>35288.076459962103</v>
       </c>
       <c r="I1">
-        <v>5441.5712594555198</v>
+        <v>4569.1000788700603</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>321</v>
       </c>
       <c r="K1">
-        <v>27275.266244295399</v>
+        <v>23882.179906217301</v>
       </c>
       <c r="L1">
-        <v>5387.7202395046397</v>
+        <v>5337.4310195320304</v>
       </c>
       <c r="M1" t="s">
-        <v>89</v>
+        <v>322</v>
       </c>
       <c r="N1">
-        <v>24318.758353070702</v>
+        <v>23172.421317922701</v>
       </c>
       <c r="O1">
-        <v>5676.85799660674</v>
+        <v>5686.9403555996296</v>
       </c>
       <c r="P1" t="s">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="Q1">
-        <v>25212.088560112599</v>
+        <v>23523.435392510099</v>
       </c>
       <c r="R1">
-        <v>5580.92621506455</v>
+        <v>5531.7959826198903</v>
       </c>
       <c r="S1" t="s">
-        <v>91</v>
+        <v>324</v>
       </c>
       <c r="T1">
-        <v>23779.526354759098</v>
+        <v>23574.8055984821</v>
       </c>
       <c r="U1">
-        <v>5771.0504258968804</v>
+        <v>5496.6399698531204</v>
       </c>
       <c r="V1" t="s">
-        <v>92</v>
+        <v>325</v>
       </c>
       <c r="W1">
-        <v>23457.545337282099</v>
+        <v>29130.901485269798</v>
       </c>
       <c r="X1">
-        <v>5835.7644489988597</v>
+        <v>4722.80273888594</v>
       </c>
       <c r="Y1" t="s">
-        <v>93</v>
+        <v>326</v>
       </c>
       <c r="Z1">
-        <v>24701.8749831079</v>
+        <v>27217.915487411399</v>
       </c>
       <c r="AA1">
-        <v>5616.3707503775004</v>
+        <v>4901.3337671154004</v>
       </c>
       <c r="AB1" t="s">
-        <v>94</v>
+        <v>327</v>
       </c>
       <c r="AC1">
-        <v>25745.096918079998</v>
+        <v>24358.193945808402</v>
       </c>
       <c r="AD1">
-        <v>5488.5145445165899</v>
+        <v>5294.8536628659604</v>
       </c>
       <c r="AE1" t="s">
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="AF1">
-        <v>26698.485042263801</v>
+        <v>26229.5009093025</v>
       </c>
       <c r="AG1">
-        <v>5402.8185454814202</v>
+        <v>4956.3490095915004</v>
       </c>
       <c r="AH1" t="s">
-        <v>96</v>
+        <v>329</v>
       </c>
       <c r="AI1">
-        <v>24259.003308051699</v>
+        <v>25251.632657763301</v>
       </c>
       <c r="AJ1">
-        <v>5720.9349456530799</v>
+        <v>5087.2319282894696</v>
       </c>
       <c r="AK1" t="s">
-        <v>97</v>
+        <v>330</v>
       </c>
       <c r="AL1">
-        <v>25717.4949714258</v>
+        <v>24362.690789533201</v>
       </c>
       <c r="AM1">
-        <v>5509.7745111993499</v>
+        <v>5203.8521753770101</v>
       </c>
       <c r="AN1" t="s">
-        <v>98</v>
+        <v>331</v>
       </c>
       <c r="AO1">
-        <v>25247.8384659568</v>
+        <v>26735.331601840098</v>
       </c>
       <c r="AP1">
-        <v>5540.04099236816</v>
+        <v>4956.0924397484796</v>
       </c>
       <c r="AQ1" t="s">
-        <v>99</v>
+        <v>332</v>
       </c>
       <c r="AR1">
-        <v>27697.6547847906</v>
+        <v>28685.759335285598</v>
       </c>
       <c r="AS1">
-        <v>5367.0547566648302</v>
+        <v>4816.4457055740104</v>
       </c>
       <c r="AT1" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="AU1">
-        <v>23807.814438633701</v>
+        <v>32196.0695562371</v>
       </c>
       <c r="AV1">
-        <v>5751.4219640996598</v>
+        <v>4658.8452221042999</v>
       </c>
       <c r="AW1" t="s">
-        <v>101</v>
+        <v>334</v>
       </c>
       <c r="AX1">
-        <v>26705.503544140502</v>
+        <v>25787.578530009399</v>
       </c>
       <c r="AY1">
-        <v>5396.5463954996603</v>
+        <v>5018.2320024836999</v>
       </c>
       <c r="AZ1" t="s">
-        <v>102</v>
+        <v>335</v>
       </c>
       <c r="BA1">
-        <v>24777.5274514384</v>
+        <v>32738.336177407298</v>
       </c>
       <c r="BB1">
-        <v>5605.1531030984597</v>
+        <v>4631.4646604612099</v>
       </c>
       <c r="BC1" t="s">
-        <v>103</v>
+        <v>336</v>
       </c>
       <c r="BD1">
-        <v>27673.4734313605</v>
+        <v>33761.198093784398</v>
       </c>
       <c r="BE1">
-        <v>5379.0740713880496</v>
+        <v>4624.9527982175896</v>
       </c>
       <c r="BF1" t="s">
-        <v>104</v>
+        <v>337</v>
       </c>
       <c r="BG1">
-        <v>25237.083663429199</v>
+        <v>30144.376530263398</v>
       </c>
       <c r="BH1">
-        <v>5543.9749871009799</v>
+        <v>4681.3646208358996</v>
       </c>
       <c r="BI1" t="s">
-        <v>105</v>
+        <v>338</v>
       </c>
       <c r="BJ1">
-        <v>23269.607091117501</v>
+        <v>29649.843600538701</v>
       </c>
       <c r="BK1">
-        <v>5886.3879441017598</v>
+        <v>4709.8845881249999</v>
       </c>
       <c r="BL1" t="s">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="BM1">
-        <v>23266.932015483799</v>
+        <v>34243.2057068168</v>
       </c>
       <c r="BN1">
-        <v>5918.6244013244004</v>
+        <v>4587.7377835268398</v>
       </c>
       <c r="BO1" t="s">
-        <v>107</v>
+        <v>340</v>
       </c>
       <c r="BP1">
-        <v>24313.075634418201</v>
+        <v>28149.854287889299</v>
       </c>
       <c r="BQ1">
-        <v>5697.9023093410397</v>
+        <v>4898.9513046763996</v>
       </c>
       <c r="BR1" t="s">
-        <v>108</v>
+        <v>341</v>
       </c>
       <c r="BS1">
-        <v>23314.575713437898</v>
+        <v>31726.1771698665</v>
       </c>
       <c r="BT1">
-        <v>5860.3594950754195</v>
+        <v>4672.50940218081</v>
       </c>
       <c r="BU1" t="s">
-        <v>109</v>
+        <v>342</v>
       </c>
       <c r="BV1">
-        <v>23420.090833866099</v>
+        <v>31233.9751934458</v>
       </c>
       <c r="BW1">
-        <v>5850.8191823402103</v>
+        <v>4677.6355846508104</v>
       </c>
       <c r="BX1" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="BY1">
-        <v>25719.009476482999</v>
+        <v>33232.1379586658</v>
       </c>
       <c r="BZ1">
-        <v>5500.7390170721601</v>
+        <v>4625.0468079175198</v>
       </c>
       <c r="CA1" t="s">
-        <v>111</v>
+        <v>344</v>
       </c>
       <c r="CB1">
-        <v>23402.9268357853</v>
+        <v>25754.499151066801</v>
       </c>
       <c r="CC1">
-        <v>5860.1734283415299</v>
+        <v>5060.2030948453903</v>
       </c>
       <c r="CD1" t="s">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="CE1">
-        <v>23430.276325892301</v>
+        <v>34238.634007514302</v>
       </c>
       <c r="CF1">
-        <v>5840.8201460206801</v>
+        <v>4589.6602487823102</v>
       </c>
       <c r="CG1" t="s">
-        <v>113</v>
+        <v>346</v>
       </c>
       <c r="CH1">
-        <v>23292.989458776701</v>
+        <v>25248.305288360902</v>
       </c>
       <c r="CI1">
-        <v>5871.2783920087404</v>
+        <v>5160.9070516564198</v>
       </c>
       <c r="CJ1" t="s">
-        <v>114</v>
+        <v>347</v>
       </c>
       <c r="CK1">
-        <v>24281.4354932936</v>
+        <v>25250.720818279598</v>
       </c>
       <c r="CL1">
-        <v>5699.0506658127897</v>
+        <v>5156.4745712448203</v>
       </c>
       <c r="CM1" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="CN1">
-        <v>23782.806760998599</v>
+        <v>28661.774231829899</v>
       </c>
       <c r="CO1">
-        <v>5760.5885437368597</v>
+        <v>4858.4723114194803</v>
       </c>
       <c r="CP1" t="s">
-        <v>116</v>
+        <v>349</v>
       </c>
       <c r="CQ1">
-        <v>25729.119828375002</v>
+        <v>24800.785648596499</v>
       </c>
       <c r="CR1">
-        <v>5488.6334928105598</v>
+        <v>5193.5573834298802</v>
       </c>
       <c r="CS1" t="s">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="CT1">
-        <v>23275.981410242599</v>
+        <v>30143.580404554599</v>
       </c>
       <c r="CU1">
-        <v>5878.5009916818199</v>
+        <v>4697.5304737875604</v>
       </c>
       <c r="CV1" t="s">
-        <v>118</v>
+        <v>351</v>
       </c>
       <c r="CW1">
-        <v>24269.648146256299</v>
+        <v>28181.6642389238</v>
       </c>
       <c r="CX1">
-        <v>5709.8357258184396</v>
+        <v>4863.7693463879596</v>
       </c>
       <c r="CY1" t="s">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="CZ1">
-        <v>24270.2346661226</v>
+        <v>23164.561755312301</v>
       </c>
       <c r="DA1">
-        <v>5709.2306655395496</v>
+        <v>5727.5075449452697</v>
       </c>
       <c r="DB1" t="s">
-        <v>120</v>
+        <v>353</v>
       </c>
       <c r="DC1">
-        <v>24729.065077429001</v>
+        <v>24799.3526727307</v>
       </c>
       <c r="DD1">
-        <v>5610.2741926319304</v>
+        <v>5193.9443385532504</v>
       </c>
       <c r="DE1" t="s">
-        <v>121</v>
+        <v>354</v>
       </c>
       <c r="DF1">
-        <v>24758.0636089127</v>
+        <v>31234.634647335599</v>
       </c>
       <c r="DG1">
-        <v>5605.5457951386497</v>
+        <v>4675.7662535929203</v>
       </c>
       <c r="DH1" t="s">
-        <v>122</v>
+        <v>355</v>
       </c>
       <c r="DI1">
-        <v>23797.489689870101</v>
+        <v>28663.109680412399</v>
       </c>
       <c r="DJ1">
-        <v>5757.5336011642303</v>
+        <v>4831.3396432037098</v>
       </c>
       <c r="DK1" t="s">
-        <v>123</v>
+        <v>356</v>
       </c>
       <c r="DL1">
-        <v>23292.0076495186</v>
+        <v>25786.852691284199</v>
       </c>
       <c r="DM1">
-        <v>5874.02722999048</v>
+        <v>5042.1782398550104</v>
       </c>
       <c r="DN1" t="s">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="DO1">
-        <v>23800.575981850801</v>
+        <v>28158.418665970199</v>
       </c>
       <c r="DP1">
-        <v>5753.3879209386396</v>
+        <v>4881.6067550892803</v>
       </c>
       <c r="DQ1" t="s">
-        <v>125</v>
+        <v>358</v>
       </c>
       <c r="DR1">
-        <v>24727.270072615102</v>
+        <v>23526.255108941601</v>
       </c>
       <c r="DS1">
-        <v>5613.0080413325504</v>
+        <v>5518.94533976206</v>
       </c>
       <c r="DT1" t="s">
-        <v>126</v>
+        <v>359</v>
       </c>
       <c r="DU1">
-        <v>25242.513701067299</v>
+        <v>23548.310187542698</v>
       </c>
       <c r="DV1">
-        <v>5542.9551213024897</v>
+        <v>5512.5875966643498</v>
       </c>
       <c r="DW1" t="s">
-        <v>127</v>
+        <v>360</v>
       </c>
       <c r="DX1">
-        <v>24715.920974112702</v>
+        <v>28159.116577057499</v>
       </c>
       <c r="DY1">
-        <v>5614.9012248016497</v>
+        <v>4877.8904595301401</v>
       </c>
       <c r="DZ1" t="s">
-        <v>128</v>
+        <v>361</v>
       </c>
       <c r="EA1">
-        <v>24711.986920769301</v>
+        <v>25755.989904747799</v>
       </c>
       <c r="EB1">
-        <v>5616.1182659974002</v>
+        <v>5050.67586562202</v>
       </c>
       <c r="EC1" t="s">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="ED1">
-        <v>24707.000417946001</v>
+        <v>23564.577911832799</v>
       </c>
       <c r="EE1">
-        <v>5616.3533901976798</v>
+        <v>5502.0213657448503</v>
       </c>
       <c r="EF1" t="s">
-        <v>130</v>
+        <v>363</v>
       </c>
       <c r="EG1">
-        <v>24710.703449800501</v>
+        <v>28668.954430090202</v>
       </c>
       <c r="EH1">
-        <v>5616.12176368987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+        <v>4827.07905499955</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>364</v>
+      </c>
+      <c r="EJ1">
+        <v>28685.128117463501</v>
+      </c>
+      <c r="EK1">
+        <v>4819.1362209058698</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>365</v>
+      </c>
+      <c r="EM1">
+        <v>25761.9151322004</v>
+      </c>
+      <c r="EN1">
+        <v>5042.3261956140204</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>366</v>
+      </c>
+      <c r="EP1">
+        <v>23565.011999804399</v>
+      </c>
+      <c r="EQ1">
+        <v>5499.2776142823504</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>367</v>
+      </c>
+      <c r="ES1">
+        <v>24800.687699579801</v>
+      </c>
+      <c r="ET1">
+        <v>5193.8024568942901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="E3" t="s">
         <v>38</v>
       </c>
@@ -7443,16 +7494,16 @@
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>318</v>
       </c>
       <c r="E4" t="str">
         <f>IF(B4=2,C4,"")</f>
@@ -7463,50 +7514,50 @@
         <v/>
       </c>
       <c r="H4">
-        <f>MIN(E4:E141)</f>
-        <v>23258.522051210999</v>
+        <f>MIN(E4:E153)</f>
+        <v>23146.932643410499</v>
       </c>
       <c r="I4">
-        <f>MAX(E4:E141)</f>
-        <v>28218.179685794199</v>
+        <f>MAX(E4:E153)</f>
+        <v>37382.333700285097</v>
       </c>
       <c r="J4">
-        <f>MIN(F4:F141)</f>
-        <v>5356.3801795269601</v>
+        <f>MIN(F4:F153)</f>
+        <v>4559.4030575090301</v>
       </c>
       <c r="K4">
-        <f>MAX(F4:F141)</f>
-        <v>5920.40602325078</v>
+        <f>MAX(F4:F153)</f>
+        <v>5733.7762920553496</v>
       </c>
       <c r="M4">
-        <f>SUMIF(B4:B141,1)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+        <f>SUMIF(B4:B153,1)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <f>IF(B4&lt;3,B4+1,1)</f>
         <v>2</v>
       </c>
       <c r="C5">
-        <v>23258.522051210999</v>
+        <v>23146.932643410499</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E68" si="0">IF(B5=2,C5,"")</f>
-        <v>23258.522051210999</v>
+        <v>23146.932643410499</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F68" si="1">IF(B5=3,C5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <f t="shared" ref="B6:B69" si="2">IF(B5&lt;3,B5+1,1)</f>
         <v>3</v>
       </c>
       <c r="C6">
-        <v>5920.40602325078</v>
+        <v>5733.7762920553496</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -7514,16 +7565,16 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>5920.40602325078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+        <v>5733.7762920553496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>319</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -7534,30 +7585,30 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C8">
-        <v>28218.179685794199</v>
+        <v>37382.333700285097</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>28218.179685794199</v>
+        <v>37382.333700285097</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C9">
-        <v>5356.3801795269601</v>
+        <v>4559.4030575090301</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -7565,16 +7616,16 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>5356.3801795269601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+        <v>4559.4030575090301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>320</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -7585,30 +7636,30 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C11">
-        <v>26212.635930253098</v>
+        <v>35288.076459962103</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>26212.635930253098</v>
+        <v>35288.076459962103</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C12">
-        <v>5441.5712594555198</v>
+        <v>4569.1000788700603</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -7616,16 +7667,16 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>5441.5712594555198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+        <v>4569.1000788700603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>321</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -7636,30 +7687,30 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="B14">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C14">
-        <v>27275.266244295399</v>
+        <v>23882.179906217301</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>27275.266244295399</v>
+        <v>23882.179906217301</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="B15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C15">
-        <v>5387.7202395046397</v>
+        <v>5337.4310195320304</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -7667,16 +7718,16 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>5387.7202395046397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:138" x14ac:dyDescent="0.55000000000000004">
+        <v>5337.4310195320304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:150" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>322</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -7693,11 +7744,11 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>24318.758353070702</v>
+        <v>23172.421317922701</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>24318.758353070702</v>
+        <v>23172.421317922701</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
@@ -7710,7 +7761,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>5676.85799660674</v>
+        <v>5686.9403555996296</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -7718,7 +7769,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>5676.85799660674</v>
+        <v>5686.9403555996296</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -7727,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -7744,11 +7795,11 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>25212.088560112599</v>
+        <v>23523.435392510099</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>25212.088560112599</v>
+        <v>23523.435392510099</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
@@ -7761,7 +7812,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>5580.92621506455</v>
+        <v>5531.7959826198903</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -7769,7 +7820,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>5580.92621506455</v>
+        <v>5531.7959826198903</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -7778,7 +7829,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>324</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -7795,11 +7846,11 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>23779.526354759098</v>
+        <v>23574.8055984821</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>23779.526354759098</v>
+        <v>23574.8055984821</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
@@ -7812,7 +7863,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>5771.0504258968804</v>
+        <v>5496.6399698531204</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -7820,7 +7871,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>5771.0504258968804</v>
+        <v>5496.6399698531204</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -7829,7 +7880,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>325</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -7846,11 +7897,11 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>23457.545337282099</v>
+        <v>29130.901485269798</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>23457.545337282099</v>
+        <v>29130.901485269798</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
@@ -7863,7 +7914,7 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>5835.7644489988597</v>
+        <v>4722.80273888594</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -7871,7 +7922,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>5835.7644489988597</v>
+        <v>4722.80273888594</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -7880,7 +7931,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>326</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -7897,11 +7948,11 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>24701.8749831079</v>
+        <v>27217.915487411399</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>24701.8749831079</v>
+        <v>27217.915487411399</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
@@ -7914,7 +7965,7 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>5616.3707503775004</v>
+        <v>4901.3337671154004</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -7922,7 +7973,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>5616.3707503775004</v>
+        <v>4901.3337671154004</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -7931,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>327</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -7948,11 +7999,11 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>25745.096918079998</v>
+        <v>24358.193945808402</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>25745.096918079998</v>
+        <v>24358.193945808402</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
@@ -7965,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>5488.5145445165899</v>
+        <v>5294.8536628659604</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -7973,7 +8024,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>5488.5145445165899</v>
+        <v>5294.8536628659604</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -7982,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -7999,11 +8050,11 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>26698.485042263801</v>
+        <v>26229.5009093025</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>26698.485042263801</v>
+        <v>26229.5009093025</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
@@ -8016,7 +8067,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>5402.8185454814202</v>
+        <v>4956.3490095915004</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -8024,7 +8075,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>5402.8185454814202</v>
+        <v>4956.3490095915004</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8033,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>329</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -8050,11 +8101,11 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>24259.003308051699</v>
+        <v>25251.632657763301</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>24259.003308051699</v>
+        <v>25251.632657763301</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
@@ -8067,7 +8118,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>5720.9349456530799</v>
+        <v>5087.2319282894696</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -8075,7 +8126,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>5720.9349456530799</v>
+        <v>5087.2319282894696</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8084,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>330</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -8101,11 +8152,11 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>25717.4949714258</v>
+        <v>24362.690789533201</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>25717.4949714258</v>
+        <v>24362.690789533201</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
@@ -8118,7 +8169,7 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>5509.7745111993499</v>
+        <v>5203.8521753770101</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
@@ -8126,7 +8177,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>5509.7745111993499</v>
+        <v>5203.8521753770101</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8135,7 +8186,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>331</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -8152,11 +8203,11 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>25247.8384659568</v>
+        <v>26735.331601840098</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>25247.8384659568</v>
+        <v>26735.331601840098</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
@@ -8169,7 +8220,7 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>5540.04099236816</v>
+        <v>4956.0924397484796</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
@@ -8177,7 +8228,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>5540.04099236816</v>
+        <v>4956.0924397484796</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8186,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>332</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -8203,11 +8254,11 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>27697.6547847906</v>
+        <v>28685.759335285598</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>27697.6547847906</v>
+        <v>28685.759335285598</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
@@ -8220,7 +8271,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>5367.0547566648302</v>
+        <v>4816.4457055740104</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
@@ -8228,7 +8279,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>5367.0547566648302</v>
+        <v>4816.4457055740104</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8237,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
@@ -8254,11 +8305,11 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>23807.814438633701</v>
+        <v>32196.0695562371</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>23807.814438633701</v>
+        <v>32196.0695562371</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
@@ -8271,7 +8322,7 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>5751.4219640996598</v>
+        <v>4658.8452221042999</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
@@ -8279,7 +8330,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>5751.4219640996598</v>
+        <v>4658.8452221042999</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8288,7 +8339,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>334</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -8305,11 +8356,11 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>26705.503544140502</v>
+        <v>25787.578530009399</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>26705.503544140502</v>
+        <v>25787.578530009399</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="1"/>
@@ -8322,7 +8373,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>5396.5463954996603</v>
+        <v>5018.2320024836999</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
@@ -8330,7 +8381,7 @@
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>5396.5463954996603</v>
+        <v>5018.2320024836999</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8339,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>335</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -8356,11 +8407,11 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>24777.5274514384</v>
+        <v>32738.336177407298</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>24777.5274514384</v>
+        <v>32738.336177407298</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="1"/>
@@ -8373,7 +8424,7 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>5605.1531030984597</v>
+        <v>4631.4646604612099</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
@@ -8381,7 +8432,7 @@
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>5605.1531030984597</v>
+        <v>4631.4646604612099</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8390,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>336</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
@@ -8407,11 +8458,11 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>27673.4734313605</v>
+        <v>33761.198093784398</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>27673.4734313605</v>
+        <v>33761.198093784398</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="1"/>
@@ -8424,7 +8475,7 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>5379.0740713880496</v>
+        <v>4624.9527982175896</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
@@ -8432,7 +8483,7 @@
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>5379.0740713880496</v>
+        <v>4624.9527982175896</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8441,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>337</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -8458,11 +8509,11 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>25237.083663429199</v>
+        <v>30144.376530263398</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>25237.083663429199</v>
+        <v>30144.376530263398</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="1"/>
@@ -8475,7 +8526,7 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>5543.9749871009799</v>
+        <v>4681.3646208358996</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
@@ -8483,7 +8534,7 @@
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>5543.9749871009799</v>
+        <v>4681.3646208358996</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8492,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
+        <v>338</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
@@ -8509,11 +8560,11 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>23269.607091117501</v>
+        <v>29649.843600538701</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>23269.607091117501</v>
+        <v>29649.843600538701</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="1"/>
@@ -8526,7 +8577,7 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <v>5886.3879441017598</v>
+        <v>4709.8845881249999</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
@@ -8534,7 +8585,7 @@
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>5886.3879441017598</v>
+        <v>4709.8845881249999</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8543,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="0"/>
@@ -8560,11 +8611,11 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>23266.932015483799</v>
+        <v>34243.2057068168</v>
       </c>
       <c r="E68">
         <f t="shared" si="0"/>
-        <v>23266.932015483799</v>
+        <v>34243.2057068168</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
@@ -8577,7 +8628,7 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>5918.6244013244004</v>
+        <v>4587.7377835268398</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" ref="E69:E132" si="3">IF(B69=2,C69,"")</f>
@@ -8585,7 +8636,7 @@
       </c>
       <c r="F69">
         <f t="shared" ref="F69:F132" si="4">IF(B69=3,C69,"")</f>
-        <v>5918.6244013244004</v>
+        <v>4587.7377835268398</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8594,7 +8645,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>340</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="3"/>
@@ -8611,11 +8662,11 @@
         <v>2</v>
       </c>
       <c r="C71">
-        <v>24313.075634418201</v>
+        <v>28149.854287889299</v>
       </c>
       <c r="E71">
         <f t="shared" si="3"/>
-        <v>24313.075634418201</v>
+        <v>28149.854287889299</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="4"/>
@@ -8628,7 +8679,7 @@
         <v>3</v>
       </c>
       <c r="C72">
-        <v>5697.9023093410397</v>
+        <v>4898.9513046763996</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="3"/>
@@ -8636,7 +8687,7 @@
       </c>
       <c r="F72">
         <f t="shared" si="4"/>
-        <v>5697.9023093410397</v>
+        <v>4898.9513046763996</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8645,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>341</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="3"/>
@@ -8662,11 +8713,11 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>23314.575713437898</v>
+        <v>31726.1771698665</v>
       </c>
       <c r="E74">
         <f t="shared" si="3"/>
-        <v>23314.575713437898</v>
+        <v>31726.1771698665</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="4"/>
@@ -8679,7 +8730,7 @@
         <v>3</v>
       </c>
       <c r="C75">
-        <v>5860.3594950754195</v>
+        <v>4672.50940218081</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="3"/>
@@ -8687,7 +8738,7 @@
       </c>
       <c r="F75">
         <f t="shared" si="4"/>
-        <v>5860.3594950754195</v>
+        <v>4672.50940218081</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8696,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>342</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="3"/>
@@ -8713,11 +8764,11 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>23420.090833866099</v>
+        <v>31233.9751934458</v>
       </c>
       <c r="E77">
         <f t="shared" si="3"/>
-        <v>23420.090833866099</v>
+        <v>31233.9751934458</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="4"/>
@@ -8730,7 +8781,7 @@
         <v>3</v>
       </c>
       <c r="C78">
-        <v>5850.8191823402103</v>
+        <v>4677.6355846508104</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="3"/>
@@ -8738,7 +8789,7 @@
       </c>
       <c r="F78">
         <f t="shared" si="4"/>
-        <v>5850.8191823402103</v>
+        <v>4677.6355846508104</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8747,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="3"/>
@@ -8764,11 +8815,11 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>25719.009476482999</v>
+        <v>33232.1379586658</v>
       </c>
       <c r="E80">
         <f t="shared" si="3"/>
-        <v>25719.009476482999</v>
+        <v>33232.1379586658</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="4"/>
@@ -8781,7 +8832,7 @@
         <v>3</v>
       </c>
       <c r="C81">
-        <v>5500.7390170721601</v>
+        <v>4625.0468079175198</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="3"/>
@@ -8789,7 +8840,7 @@
       </c>
       <c r="F81">
         <f t="shared" si="4"/>
-        <v>5500.7390170721601</v>
+        <v>4625.0468079175198</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8798,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>344</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="3"/>
@@ -8815,11 +8866,11 @@
         <v>2</v>
       </c>
       <c r="C83">
-        <v>23402.9268357853</v>
+        <v>25754.499151066801</v>
       </c>
       <c r="E83">
         <f t="shared" si="3"/>
-        <v>23402.9268357853</v>
+        <v>25754.499151066801</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="4"/>
@@ -8832,7 +8883,7 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>5860.1734283415299</v>
+        <v>5060.2030948453903</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="3"/>
@@ -8840,7 +8891,7 @@
       </c>
       <c r="F84">
         <f t="shared" si="4"/>
-        <v>5860.1734283415299</v>
+        <v>5060.2030948453903</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8849,7 +8900,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="3"/>
@@ -8866,11 +8917,11 @@
         <v>2</v>
       </c>
       <c r="C86">
-        <v>23430.276325892301</v>
+        <v>34238.634007514302</v>
       </c>
       <c r="E86">
         <f t="shared" si="3"/>
-        <v>23430.276325892301</v>
+        <v>34238.634007514302</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="4"/>
@@ -8883,7 +8934,7 @@
         <v>3</v>
       </c>
       <c r="C87">
-        <v>5840.8201460206801</v>
+        <v>4589.6602487823102</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="3"/>
@@ -8891,7 +8942,7 @@
       </c>
       <c r="F87">
         <f t="shared" si="4"/>
-        <v>5840.8201460206801</v>
+        <v>4589.6602487823102</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8900,7 +8951,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>346</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="3"/>
@@ -8917,11 +8968,11 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>23292.989458776701</v>
+        <v>25248.305288360902</v>
       </c>
       <c r="E89">
         <f t="shared" si="3"/>
-        <v>23292.989458776701</v>
+        <v>25248.305288360902</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="4"/>
@@ -8934,7 +8985,7 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>5871.2783920087404</v>
+        <v>5160.9070516564198</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="3"/>
@@ -8942,7 +8993,7 @@
       </c>
       <c r="F90">
         <f t="shared" si="4"/>
-        <v>5871.2783920087404</v>
+        <v>5160.9070516564198</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -8951,7 +9002,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>347</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="3"/>
@@ -8968,11 +9019,11 @@
         <v>2</v>
       </c>
       <c r="C92">
-        <v>24281.4354932936</v>
+        <v>25250.720818279598</v>
       </c>
       <c r="E92">
         <f t="shared" si="3"/>
-        <v>24281.4354932936</v>
+        <v>25250.720818279598</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="4"/>
@@ -8985,7 +9036,7 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>5699.0506658127897</v>
+        <v>5156.4745712448203</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="3"/>
@@ -8993,7 +9044,7 @@
       </c>
       <c r="F93">
         <f t="shared" si="4"/>
-        <v>5699.0506658127897</v>
+        <v>5156.4745712448203</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9002,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="3"/>
@@ -9019,11 +9070,11 @@
         <v>2</v>
       </c>
       <c r="C95">
-        <v>23782.806760998599</v>
+        <v>28661.774231829899</v>
       </c>
       <c r="E95">
         <f t="shared" si="3"/>
-        <v>23782.806760998599</v>
+        <v>28661.774231829899</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="4"/>
@@ -9036,7 +9087,7 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>5760.5885437368597</v>
+        <v>4858.4723114194803</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="3"/>
@@ -9044,7 +9095,7 @@
       </c>
       <c r="F96">
         <f t="shared" si="4"/>
-        <v>5760.5885437368597</v>
+        <v>4858.4723114194803</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9053,7 +9104,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>349</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="3"/>
@@ -9070,11 +9121,11 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <v>25729.119828375002</v>
+        <v>24800.785648596499</v>
       </c>
       <c r="E98">
         <f t="shared" si="3"/>
-        <v>25729.119828375002</v>
+        <v>24800.785648596499</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="4"/>
@@ -9087,7 +9138,7 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>5488.6334928105598</v>
+        <v>5193.5573834298802</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="3"/>
@@ -9095,7 +9146,7 @@
       </c>
       <c r="F99">
         <f t="shared" si="4"/>
-        <v>5488.6334928105598</v>
+        <v>5193.5573834298802</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9104,7 +9155,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="3"/>
@@ -9121,11 +9172,11 @@
         <v>2</v>
       </c>
       <c r="C101">
-        <v>23275.981410242599</v>
+        <v>30143.580404554599</v>
       </c>
       <c r="E101">
         <f t="shared" si="3"/>
-        <v>23275.981410242599</v>
+        <v>30143.580404554599</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="4"/>
@@ -9138,7 +9189,7 @@
         <v>3</v>
       </c>
       <c r="C102">
-        <v>5878.5009916818199</v>
+        <v>4697.5304737875604</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="3"/>
@@ -9146,7 +9197,7 @@
       </c>
       <c r="F102">
         <f t="shared" si="4"/>
-        <v>5878.5009916818199</v>
+        <v>4697.5304737875604</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9155,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>118</v>
+        <v>351</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="3"/>
@@ -9172,11 +9223,11 @@
         <v>2</v>
       </c>
       <c r="C104">
-        <v>24269.648146256299</v>
+        <v>28181.6642389238</v>
       </c>
       <c r="E104">
         <f t="shared" si="3"/>
-        <v>24269.648146256299</v>
+        <v>28181.6642389238</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="4"/>
@@ -9189,7 +9240,7 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>5709.8357258184396</v>
+        <v>4863.7693463879596</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="3"/>
@@ -9197,7 +9248,7 @@
       </c>
       <c r="F105">
         <f t="shared" si="4"/>
-        <v>5709.8357258184396</v>
+        <v>4863.7693463879596</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9206,7 +9257,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="3"/>
@@ -9223,11 +9274,11 @@
         <v>2</v>
       </c>
       <c r="C107">
-        <v>24270.2346661226</v>
+        <v>23164.561755312301</v>
       </c>
       <c r="E107">
         <f t="shared" si="3"/>
-        <v>24270.2346661226</v>
+        <v>23164.561755312301</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="4"/>
@@ -9240,7 +9291,7 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>5709.2306655395496</v>
+        <v>5727.5075449452697</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="3"/>
@@ -9248,7 +9299,7 @@
       </c>
       <c r="F108">
         <f t="shared" si="4"/>
-        <v>5709.2306655395496</v>
+        <v>5727.5075449452697</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9257,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>120</v>
+        <v>353</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="3"/>
@@ -9274,11 +9325,11 @@
         <v>2</v>
       </c>
       <c r="C110">
-        <v>24729.065077429001</v>
+        <v>24799.3526727307</v>
       </c>
       <c r="E110">
         <f t="shared" si="3"/>
-        <v>24729.065077429001</v>
+        <v>24799.3526727307</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="4"/>
@@ -9291,7 +9342,7 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>5610.2741926319304</v>
+        <v>5193.9443385532504</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="3"/>
@@ -9299,7 +9350,7 @@
       </c>
       <c r="F111">
         <f t="shared" si="4"/>
-        <v>5610.2741926319304</v>
+        <v>5193.9443385532504</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9308,7 +9359,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>121</v>
+        <v>354</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="3"/>
@@ -9325,11 +9376,11 @@
         <v>2</v>
       </c>
       <c r="C113">
-        <v>24758.0636089127</v>
+        <v>31234.634647335599</v>
       </c>
       <c r="E113">
         <f t="shared" si="3"/>
-        <v>24758.0636089127</v>
+        <v>31234.634647335599</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="4"/>
@@ -9342,7 +9393,7 @@
         <v>3</v>
       </c>
       <c r="C114">
-        <v>5605.5457951386497</v>
+        <v>4675.7662535929203</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="3"/>
@@ -9350,7 +9401,7 @@
       </c>
       <c r="F114">
         <f t="shared" si="4"/>
-        <v>5605.5457951386497</v>
+        <v>4675.7662535929203</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9359,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>122</v>
+        <v>355</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="3"/>
@@ -9376,11 +9427,11 @@
         <v>2</v>
       </c>
       <c r="C116">
-        <v>23797.489689870101</v>
+        <v>28663.109680412399</v>
       </c>
       <c r="E116">
         <f t="shared" si="3"/>
-        <v>23797.489689870101</v>
+        <v>28663.109680412399</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="4"/>
@@ -9393,7 +9444,7 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>5757.5336011642303</v>
+        <v>4831.3396432037098</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="3"/>
@@ -9401,7 +9452,7 @@
       </c>
       <c r="F117">
         <f t="shared" si="4"/>
-        <v>5757.5336011642303</v>
+        <v>4831.3396432037098</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9410,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>123</v>
+        <v>356</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="3"/>
@@ -9427,11 +9478,11 @@
         <v>2</v>
       </c>
       <c r="C119">
-        <v>23292.0076495186</v>
+        <v>25786.852691284199</v>
       </c>
       <c r="E119">
         <f t="shared" si="3"/>
-        <v>23292.0076495186</v>
+        <v>25786.852691284199</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="4"/>
@@ -9444,7 +9495,7 @@
         <v>3</v>
       </c>
       <c r="C120">
-        <v>5874.02722999048</v>
+        <v>5042.1782398550104</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="3"/>
@@ -9452,7 +9503,7 @@
       </c>
       <c r="F120">
         <f t="shared" si="4"/>
-        <v>5874.02722999048</v>
+        <v>5042.1782398550104</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9461,7 +9512,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="3"/>
@@ -9478,11 +9529,11 @@
         <v>2</v>
       </c>
       <c r="C122">
-        <v>23800.575981850801</v>
+        <v>28158.418665970199</v>
       </c>
       <c r="E122">
         <f t="shared" si="3"/>
-        <v>23800.575981850801</v>
+        <v>28158.418665970199</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="4"/>
@@ -9495,7 +9546,7 @@
         <v>3</v>
       </c>
       <c r="C123">
-        <v>5753.3879209386396</v>
+        <v>4881.6067550892803</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="3"/>
@@ -9503,7 +9554,7 @@
       </c>
       <c r="F123">
         <f t="shared" si="4"/>
-        <v>5753.3879209386396</v>
+        <v>4881.6067550892803</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9512,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>125</v>
+        <v>358</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="3"/>
@@ -9525,15 +9576,15 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B125">
-        <f t="shared" ref="B125:B188" si="6">IF(B124&lt;3,B124+1,1)</f>
+        <f t="shared" ref="B125:B153" si="6">IF(B124&lt;3,B124+1,1)</f>
         <v>2</v>
       </c>
       <c r="C125">
-        <v>24727.270072615102</v>
+        <v>23526.255108941601</v>
       </c>
       <c r="E125">
         <f t="shared" si="3"/>
-        <v>24727.270072615102</v>
+        <v>23526.255108941601</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="4"/>
@@ -9546,7 +9597,7 @@
         <v>3</v>
       </c>
       <c r="C126">
-        <v>5613.0080413325504</v>
+        <v>5518.94533976206</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="3"/>
@@ -9554,7 +9605,7 @@
       </c>
       <c r="F126">
         <f t="shared" si="4"/>
-        <v>5613.0080413325504</v>
+        <v>5518.94533976206</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9563,7 +9614,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>126</v>
+        <v>359</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="3"/>
@@ -9580,11 +9631,11 @@
         <v>2</v>
       </c>
       <c r="C128">
-        <v>25242.513701067299</v>
+        <v>23548.310187542698</v>
       </c>
       <c r="E128">
         <f t="shared" si="3"/>
-        <v>25242.513701067299</v>
+        <v>23548.310187542698</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="4"/>
@@ -9597,7 +9648,7 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>5542.9551213024897</v>
+        <v>5512.5875966643498</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="3"/>
@@ -9605,7 +9656,7 @@
       </c>
       <c r="F129">
         <f t="shared" si="4"/>
-        <v>5542.9551213024897</v>
+        <v>5512.5875966643498</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9614,7 +9665,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>127</v>
+        <v>360</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="3"/>
@@ -9631,11 +9682,11 @@
         <v>2</v>
       </c>
       <c r="C131">
-        <v>24715.920974112702</v>
+        <v>28159.116577057499</v>
       </c>
       <c r="E131">
         <f t="shared" si="3"/>
-        <v>24715.920974112702</v>
+        <v>28159.116577057499</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" si="4"/>
@@ -9648,7 +9699,7 @@
         <v>3</v>
       </c>
       <c r="C132">
-        <v>5614.9012248016497</v>
+        <v>4877.8904595301401</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="3"/>
@@ -9656,7 +9707,7 @@
       </c>
       <c r="F132">
         <f t="shared" si="4"/>
-        <v>5614.9012248016497</v>
+        <v>4877.8904595301401</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9665,14 +9716,14 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>128</v>
+        <v>361</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" ref="E133:E141" si="7">IF(B133=2,C133,"")</f>
+        <f t="shared" ref="E133:E153" si="7">IF(B133=2,C133,"")</f>
         <v/>
       </c>
       <c r="F133" t="str">
-        <f t="shared" ref="F133:F141" si="8">IF(B133=3,C133,"")</f>
+        <f t="shared" ref="F133:F153" si="8">IF(B133=3,C133,"")</f>
         <v/>
       </c>
     </row>
@@ -9682,11 +9733,11 @@
         <v>2</v>
       </c>
       <c r="C134">
-        <v>24711.986920769301</v>
+        <v>25755.989904747799</v>
       </c>
       <c r="E134">
         <f t="shared" si="7"/>
-        <v>24711.986920769301</v>
+        <v>25755.989904747799</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="8"/>
@@ -9699,7 +9750,7 @@
         <v>3</v>
       </c>
       <c r="C135">
-        <v>5616.1182659974002</v>
+        <v>5050.67586562202</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="7"/>
@@ -9707,7 +9758,7 @@
       </c>
       <c r="F135">
         <f t="shared" si="8"/>
-        <v>5616.1182659974002</v>
+        <v>5050.67586562202</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9716,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="7"/>
@@ -9733,11 +9784,11 @@
         <v>2</v>
       </c>
       <c r="C137">
-        <v>24707.000417946001</v>
+        <v>23564.577911832799</v>
       </c>
       <c r="E137">
         <f t="shared" si="7"/>
-        <v>24707.000417946001</v>
+        <v>23564.577911832799</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="8"/>
@@ -9750,7 +9801,7 @@
         <v>3</v>
       </c>
       <c r="C138">
-        <v>5616.3533901976798</v>
+        <v>5502.0213657448503</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="7"/>
@@ -9758,7 +9809,7 @@
       </c>
       <c r="F138">
         <f t="shared" si="8"/>
-        <v>5616.3533901976798</v>
+        <v>5502.0213657448503</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -9767,7 +9818,7 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>130</v>
+        <v>363</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="7"/>
@@ -9784,11 +9835,11 @@
         <v>2</v>
       </c>
       <c r="C140">
-        <v>24710.703449800501</v>
+        <v>28668.954430090202</v>
       </c>
       <c r="E140">
         <f t="shared" si="7"/>
-        <v>24710.703449800501</v>
+        <v>28668.954430090202</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="8"/>
@@ -9801,7 +9852,7 @@
         <v>3</v>
       </c>
       <c r="C141">
-        <v>5616.12176368987</v>
+        <v>4827.07905499955</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="7"/>
@@ -9809,7 +9860,211 @@
       </c>
       <c r="F141">
         <f t="shared" si="8"/>
-        <v>5616.12176368987</v>
+        <v>4827.07905499955</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B142">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>364</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B143">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>28685.128117463501</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="7"/>
+        <v>28685.128117463501</v>
+      </c>
+      <c r="F143" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B144">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>4819.1362209058698</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F144">
+        <f t="shared" si="8"/>
+        <v>4819.1362209058698</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B145">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>365</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B146">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>25761.9151322004</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="7"/>
+        <v>25761.9151322004</v>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B147">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>5042.3261956140204</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F147">
+        <f t="shared" si="8"/>
+        <v>5042.3261956140204</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B148">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>366</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B149">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>23565.011999804399</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="7"/>
+        <v>23565.011999804399</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B150">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>5499.2776142823504</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F150">
+        <f t="shared" si="8"/>
+        <v>5499.2776142823504</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B151">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>367</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F151" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B152">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>24800.687699579801</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="7"/>
+        <v>24800.687699579801</v>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B153">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>5193.8024568942901</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F153">
+        <f t="shared" si="8"/>
+        <v>5193.8024568942901</v>
       </c>
     </row>
   </sheetData>
@@ -9833,7 +10088,7 @@
   <sheetData>
     <row r="1" spans="1:108" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="B1">
         <v>28635.139902387698</v>
@@ -9842,7 +10097,7 @@
         <v>4748.0229409424901</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="E1">
         <v>22976.121869391602</v>
@@ -9851,7 +10106,7 @@
         <v>5537.8648007114298</v>
       </c>
       <c r="G1" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="H1">
         <v>25110.467892973302</v>
@@ -9860,7 +10115,7 @@
         <v>4941.5881760919801</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="K1">
         <v>23378.8504904519</v>
@@ -9869,7 +10124,7 @@
         <v>5343.11123833686</v>
       </c>
       <c r="M1" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="N1">
         <v>23767.943186209199</v>
@@ -9878,7 +10133,7 @@
         <v>5195.3735157865203</v>
       </c>
       <c r="P1" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="Q1">
         <v>23050.566250295298</v>
@@ -9887,7 +10142,7 @@
         <v>5473.3694811995802</v>
       </c>
       <c r="S1" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="T1">
         <v>23364.6329419465</v>
@@ -9896,7 +10151,7 @@
         <v>5348.41802565123</v>
       </c>
       <c r="V1" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="W1">
         <v>27160.948227704801</v>
@@ -9905,7 +10160,7 @@
         <v>4820.5874721119599</v>
       </c>
       <c r="Y1" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="Z1">
         <v>24684.287744712699</v>
@@ -9914,7 +10169,7 @@
         <v>5010.1948131928402</v>
       </c>
       <c r="AB1" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AC1">
         <v>24641.685389500701</v>
@@ -9923,7 +10178,7 @@
         <v>5035.6856125826698</v>
       </c>
       <c r="AE1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="AF1">
         <v>24270.855260213699</v>
@@ -9932,7 +10187,7 @@
         <v>5098.5430527472699</v>
       </c>
       <c r="AH1" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="AI1">
         <v>25598.504695697098</v>
@@ -9941,7 +10196,7 @@
         <v>4894.2593519483198</v>
       </c>
       <c r="AK1" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="AL1">
         <v>23776.817020089999</v>
@@ -9950,7 +10205,7 @@
         <v>5191.7189399542103</v>
       </c>
       <c r="AN1" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="AO1">
         <v>24219.1611190767</v>
@@ -9959,7 +10214,7 @@
         <v>5146.5273015696202</v>
       </c>
       <c r="AQ1" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="AR1">
         <v>26609.240311348902</v>
@@ -9968,7 +10223,7 @@
         <v>4830.2516426649199</v>
       </c>
       <c r="AT1" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AU1">
         <v>26122.390213656301</v>
@@ -9977,7 +10232,7 @@
         <v>4864.0808592495996</v>
       </c>
       <c r="AW1" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="AX1">
         <v>25599.481495245</v>
@@ -9986,7 +10241,7 @@
         <v>4890.68888771203</v>
       </c>
       <c r="AZ1" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="BA1">
         <v>28151.429701279201</v>
@@ -9995,7 +10250,7 @@
         <v>4778.3756789827203</v>
       </c>
       <c r="BC1" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="BD1">
         <v>27625.042770693199</v>
@@ -10004,7 +10259,7 @@
         <v>4787.8927704199104</v>
       </c>
       <c r="BF1" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="BG1">
         <v>26144.5285302343</v>
@@ -10013,7 +10268,7 @@
         <v>4860.3674575957302</v>
       </c>
       <c r="BI1" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="BJ1">
         <v>26619.955434287502</v>
@@ -10022,7 +10277,7 @@
         <v>4821.59928378922</v>
       </c>
       <c r="BL1" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="BM1">
         <v>27634.669882575199</v>
@@ -10031,7 +10286,7 @@
         <v>4787.4544545735798</v>
       </c>
       <c r="BO1" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="BP1">
         <v>28137.333148835001</v>
@@ -10040,7 +10295,7 @@
         <v>4784.7509383421302</v>
       </c>
       <c r="BR1" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="BS1">
         <v>24266.462295797701</v>
@@ -10058,7 +10313,7 @@
         <v>5527.7007555538303</v>
       </c>
       <c r="BX1" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="BY1">
         <v>23001.978003972701</v>
@@ -10067,7 +10322,7 @@
         <v>5494.72588460731</v>
       </c>
       <c r="CA1" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="CB1">
         <v>24239.410929547601</v>
@@ -10076,7 +10331,7 @@
         <v>5136.2726701003303</v>
       </c>
       <c r="CD1" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="CE1">
         <v>22996.120979772699</v>
@@ -10085,7 +10340,7 @@
         <v>5504.19917021526</v>
       </c>
       <c r="CG1" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="CH1">
         <v>24644.105948497599</v>
@@ -10094,7 +10349,7 @@
         <v>5019.9594079346898</v>
       </c>
       <c r="CJ1" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="CK1">
         <v>24269.937791582099</v>
@@ -10103,7 +10358,7 @@
         <v>5103.7925231422196</v>
       </c>
       <c r="CM1" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="CN1">
         <v>24677.0470599849</v>
@@ -10112,7 +10367,7 @@
         <v>5014.0224843873702</v>
       </c>
       <c r="CP1" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="CQ1">
         <v>24237.0274037405</v>
@@ -10121,7 +10376,7 @@
         <v>5146.2820786537304</v>
       </c>
       <c r="CS1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="CT1">
         <v>22998.397239083501</v>
@@ -10130,7 +10385,7 @@
         <v>5501.3696114960003</v>
       </c>
       <c r="CV1" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="CW1">
         <v>26141.316307798701</v>
@@ -10139,7 +10394,7 @@
         <v>4861.95142592705</v>
       </c>
       <c r="CY1" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="CZ1">
         <v>28147.894647430599</v>
@@ -10148,7 +10403,7 @@
         <v>4781.5638329161502</v>
       </c>
       <c r="DB1" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="DC1">
         <v>28147.2451285688</v>
@@ -10177,7 +10432,7 @@
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:108" x14ac:dyDescent="0.55000000000000004">
@@ -10186,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="E4" t="str">
         <f>IF(B4=2,C4,"")</f>
@@ -10257,7 +10512,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -10308,7 +10563,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -10359,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -10410,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -10461,7 +10716,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -10512,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -10563,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -10614,7 +10869,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -10665,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -10716,7 +10971,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -10767,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -10818,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -10869,7 +11124,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -10920,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -10971,7 +11226,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
@@ -11022,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -11073,7 +11328,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -11124,7 +11379,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
@@ -11175,7 +11430,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -11226,7 +11481,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
@@ -11277,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="0"/>
@@ -11314,21 +11569,21 @@
         <v>4787.4544545735798</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" ref="E69:E132" si="3">IF(B69=2,C69,"")</f>
+        <f t="shared" ref="E69:E111" si="3">IF(B69=2,C69,"")</f>
         <v/>
       </c>
       <c r="F69">
-        <f t="shared" ref="F69:F132" si="4">IF(B69=3,C69,"")</f>
+        <f t="shared" ref="F69:F111" si="4">IF(B69=3,C69,"")</f>
         <v>4787.4544545735798</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B70">
-        <f t="shared" ref="B70:B123" si="5">IF(B69&lt;3,B69+1,1)</f>
+        <f t="shared" ref="B70:B111" si="5">IF(B69&lt;3,B69+1,1)</f>
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="3"/>
@@ -11379,7 +11634,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="3"/>
@@ -11481,7 +11736,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="3"/>
@@ -11532,7 +11787,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="3"/>
@@ -11583,7 +11838,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="3"/>
@@ -11634,7 +11889,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="3"/>
@@ -11685,7 +11940,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="3"/>
@@ -11736,7 +11991,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="3"/>
@@ -11787,7 +12042,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="3"/>
@@ -11838,7 +12093,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="3"/>
@@ -11889,7 +12144,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="3"/>
@@ -11940,7 +12195,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="3"/>
@@ -11991,7 +12246,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="3"/>
@@ -12057,7 +12312,7 @@
   <sheetData>
     <row r="1" spans="1:108" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="B1">
         <v>22770.464629944901</v>
@@ -12066,7 +12321,7 @@
         <v>5362.1913881022001</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="E1">
         <v>29015.471050545901</v>
@@ -12075,7 +12330,7 @@
         <v>4625.4994468653003</v>
       </c>
       <c r="G1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H1">
         <v>24052.116900414199</v>
@@ -12084,7 +12339,7 @@
         <v>5008.9136945953496</v>
       </c>
       <c r="J1" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="K1">
         <v>23649.226985944901</v>
@@ -12093,7 +12348,7 @@
         <v>5117.8992145804305</v>
       </c>
       <c r="M1" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="N1">
         <v>24496.232333579799</v>
@@ -12102,7 +12357,7 @@
         <v>4886.9470621013197</v>
       </c>
       <c r="P1" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="Q1">
         <v>23200.419353037902</v>
@@ -12111,7 +12366,7 @@
         <v>5263.5782948421302</v>
       </c>
       <c r="S1" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="T1">
         <v>23240.733071013201</v>
@@ -12120,7 +12375,7 @@
         <v>5221.2818035588398</v>
       </c>
       <c r="V1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="W1">
         <v>22830.729394619801</v>
@@ -12129,7 +12384,7 @@
         <v>5352.6766590590796</v>
       </c>
       <c r="Y1" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="Z1">
         <v>28468.9689565509</v>
@@ -12138,7 +12393,7 @@
         <v>4651.1315065884801</v>
       </c>
       <c r="AB1" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="AC1">
         <v>27497.800908746602</v>
@@ -12147,7 +12402,7 @@
         <v>4656.7234254751202</v>
       </c>
       <c r="AE1" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="AF1">
         <v>24997.6700292067</v>
@@ -12156,7 +12411,7 @@
         <v>4836.69770841639</v>
       </c>
       <c r="AH1" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="AI1">
         <v>25456.079115177501</v>
@@ -12165,7 +12420,7 @@
         <v>4782.4997353547997</v>
       </c>
       <c r="AK1" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="AL1">
         <v>24985.893401760801</v>
@@ -12183,7 +12438,7 @@
         <v>4758.3238668590002</v>
       </c>
       <c r="AQ1" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="AR1">
         <v>28472.103101857199</v>
@@ -12192,7 +12447,7 @@
         <v>4637.3792276168997</v>
       </c>
       <c r="AT1" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="AU1">
         <v>25458.381416410299</v>
@@ -12201,7 +12456,7 @@
         <v>4773.42047616325</v>
       </c>
       <c r="AW1" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="AX1">
         <v>26999.505403979099</v>
@@ -12210,7 +12465,7 @@
         <v>4679.4910795858796</v>
       </c>
       <c r="AZ1" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="BA1">
         <v>28990.460820815901</v>
@@ -12219,7 +12474,7 @@
         <v>4630.2665108015399</v>
       </c>
       <c r="BC1" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="BD1">
         <v>27492.5991800642</v>
@@ -12228,7 +12483,7 @@
         <v>4664.7854028700303</v>
       </c>
       <c r="BF1" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="BG1">
         <v>26971.167848149598</v>
@@ -12237,7 +12492,7 @@
         <v>4705.0566871703704</v>
       </c>
       <c r="BI1" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="BJ1">
         <v>26497.929341988201</v>
@@ -12246,7 +12501,7 @@
         <v>4713.0302615207302</v>
       </c>
       <c r="BL1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="BM1">
         <v>25986.795571201401</v>
@@ -12255,7 +12510,7 @@
         <v>4717.9705081062102</v>
       </c>
       <c r="BO1" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="BP1">
         <v>26491.895678700701</v>
@@ -12264,7 +12519,7 @@
         <v>4717.4157458977797</v>
       </c>
       <c r="BR1" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="BS1">
         <v>23203.089113102698</v>
@@ -12273,7 +12528,7 @@
         <v>5221.4430226643399</v>
       </c>
       <c r="BU1" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="BV1">
         <v>25970.612931478099</v>
@@ -12282,7 +12537,7 @@
         <v>4730.1131320388004</v>
       </c>
       <c r="BX1" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="BY1">
         <v>26986.399647753198</v>
@@ -12291,7 +12546,7 @@
         <v>4681.8007289529496</v>
       </c>
       <c r="CA1" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="CB1">
         <v>26975.799308469199</v>
@@ -12300,7 +12555,7 @@
         <v>4697.7560492458397</v>
       </c>
       <c r="CD1" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="CE1">
         <v>24995.318417574901</v>
@@ -12309,7 +12564,7 @@
         <v>4840.9509962140401</v>
       </c>
       <c r="CG1" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="CH1">
         <v>25458.126229547601</v>
@@ -12318,7 +12573,7 @@
         <v>4780.1479182507401</v>
       </c>
       <c r="CJ1" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="CK1">
         <v>27494.9450803199</v>
@@ -12327,7 +12582,7 @@
         <v>4662.9648558706003</v>
       </c>
       <c r="CM1" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="CN1">
         <v>25971.643514677999</v>
@@ -12336,7 +12591,7 @@
         <v>4728.8937105284604</v>
       </c>
       <c r="CP1" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="CQ1">
         <v>25984.976487570199</v>
@@ -12345,7 +12600,7 @@
         <v>4723.2024784647701</v>
       </c>
       <c r="CS1" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="CT1">
         <v>26972.516104560498</v>
@@ -12354,7 +12609,7 @@
         <v>4700.9915414795896</v>
       </c>
       <c r="CV1" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="CW1">
         <v>25985.515427717499</v>
@@ -12372,7 +12627,7 @@
         <v>4714.5060585499796</v>
       </c>
       <c r="DB1" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="DC1">
         <v>26975.296789342399</v>
@@ -12401,7 +12656,7 @@
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:108" x14ac:dyDescent="0.55000000000000004">
@@ -12410,7 +12665,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="E4" t="str">
         <f>IF(B4=2,C4,"")</f>
@@ -12481,7 +12736,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -12532,7 +12787,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -12583,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -12634,7 +12889,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -12685,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -12736,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -12787,7 +13042,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -12838,7 +13093,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -12889,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -12940,7 +13195,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -12991,7 +13246,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -13042,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -13144,7 +13399,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -13195,7 +13450,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
@@ -13246,7 +13501,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -13297,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -13348,7 +13603,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
@@ -13399,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -13450,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
@@ -13501,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="0"/>
@@ -13538,21 +13793,21 @@
         <v>4717.9705081062102</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" ref="E69:E132" si="3">IF(B69=2,C69,"")</f>
+        <f t="shared" ref="E69:E111" si="3">IF(B69=2,C69,"")</f>
         <v/>
       </c>
       <c r="F69">
-        <f t="shared" ref="F69:F132" si="4">IF(B69=3,C69,"")</f>
+        <f t="shared" ref="F69:F111" si="4">IF(B69=3,C69,"")</f>
         <v>4717.9705081062102</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B70">
-        <f t="shared" ref="B70:B123" si="5">IF(B69&lt;3,B69+1,1)</f>
+        <f t="shared" ref="B70:B111" si="5">IF(B69&lt;3,B69+1,1)</f>
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="3"/>
@@ -13603,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="3"/>
@@ -13654,7 +13909,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="3"/>
@@ -13705,7 +13960,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="3"/>
@@ -13756,7 +14011,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="3"/>
@@ -13807,7 +14062,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="3"/>
@@ -13858,7 +14113,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="3"/>
@@ -13909,7 +14164,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="3"/>
@@ -13960,7 +14215,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="3"/>
@@ -14011,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="3"/>
@@ -14062,7 +14317,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="3"/>
@@ -14113,7 +14368,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="3"/>
@@ -14215,7 +14470,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="3"/>
@@ -14281,7 +14536,7 @@
   <sheetData>
     <row r="1" spans="1:165" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="B1">
         <v>33021.867521980203</v>
@@ -14290,7 +14545,7 @@
         <v>4397.7843553996399</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="E1">
         <v>22746.389455790701</v>
@@ -14299,7 +14554,7 @@
         <v>5365.1417501751002</v>
       </c>
       <c r="G1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="H1">
         <v>23138.259990373001</v>
@@ -14308,7 +14563,7 @@
         <v>5169.6092064519498</v>
       </c>
       <c r="J1" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="K1">
         <v>22805.403922447898</v>
@@ -14317,7 +14572,7 @@
         <v>5361.66461311478</v>
       </c>
       <c r="M1" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="N1">
         <v>24973.3934917199</v>
@@ -14326,7 +14581,7 @@
         <v>4791.2862986268801</v>
       </c>
       <c r="P1" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="Q1">
         <v>23520.988195364698</v>
@@ -14335,7 +14590,7 @@
         <v>5037.7636937204197</v>
       </c>
       <c r="S1" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="T1">
         <v>32496.266376589901</v>
@@ -14344,7 +14599,7 @@
         <v>4405.39581281145</v>
       </c>
       <c r="V1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="W1">
         <v>23940.685754025799</v>
@@ -14353,7 +14608,7 @@
         <v>4920.3142948223904</v>
       </c>
       <c r="Y1" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="Z1">
         <v>23156.392102985101</v>
@@ -14362,7 +14617,7 @@
         <v>5163.7965732406201</v>
       </c>
       <c r="AB1" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="AC1">
         <v>26409.472810512401</v>
@@ -14371,7 +14626,7 @@
         <v>4681.5779315362397</v>
       </c>
       <c r="AE1" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="AF1">
         <v>27430.755246200799</v>
@@ -14380,7 +14635,7 @@
         <v>4612.0632924976398</v>
       </c>
       <c r="AH1" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="AI1">
         <v>23486.671881898499</v>
@@ -14389,7 +14644,7 @@
         <v>5052.2741923784197</v>
       </c>
       <c r="AK1" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="AL1">
         <v>25431.738143408998</v>
@@ -14398,7 +14653,7 @@
         <v>4726.2959096895402</v>
       </c>
       <c r="AN1" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="AO1">
         <v>27941.477850679301</v>
@@ -14407,7 +14662,7 @@
         <v>4587.2191539872701</v>
       </c>
       <c r="AQ1" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="AR1">
         <v>28449.830733070401</v>
@@ -14416,7 +14671,7 @@
         <v>4577.9328328953698</v>
       </c>
       <c r="AT1" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="AU1">
         <v>29920.878818388501</v>
@@ -14425,7 +14680,7 @@
         <v>4493.23405757199</v>
       </c>
       <c r="AW1" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="AX1">
         <v>31466.026365940099</v>
@@ -14434,7 +14689,7 @@
         <v>4420.4098495928201</v>
       </c>
       <c r="AZ1" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="BA1">
         <v>30420.363991052898</v>
@@ -14443,7 +14698,7 @@
         <v>4479.5518308302298</v>
       </c>
       <c r="BC1" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="BD1">
         <v>25412.511732413899</v>
@@ -14452,7 +14707,7 @@
         <v>4733.0024221745498</v>
       </c>
       <c r="BF1" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="BG1">
         <v>24961.141870058102</v>
@@ -14461,7 +14716,7 @@
         <v>4858.0366865705701</v>
       </c>
       <c r="BI1" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="BJ1">
         <v>24464.665629716499</v>
@@ -14470,7 +14725,7 @@
         <v>4903.7714829799997</v>
       </c>
       <c r="BL1" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="BM1">
         <v>24493.448474480199</v>
@@ -14479,7 +14734,7 @@
         <v>4890.1817405964202</v>
       </c>
       <c r="BO1" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="BP1">
         <v>24960.9070812262</v>
@@ -14488,7 +14743,7 @@
         <v>4873.4304030742796</v>
       </c>
       <c r="BR1" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="BS1">
         <v>26962.266291108001</v>
@@ -14497,7 +14752,7 @@
         <v>4641.1406215390898</v>
       </c>
       <c r="BU1" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="BV1">
         <v>29371.470074340799</v>
@@ -14506,7 +14761,7 @@
         <v>4525.1149039827096</v>
       </c>
       <c r="BX1" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="BY1">
         <v>28906.9052407749</v>
@@ -14515,7 +14770,7 @@
         <v>4550.6192763865802</v>
       </c>
       <c r="CA1" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="CB1">
         <v>28861.6719521368</v>
@@ -14524,7 +14779,7 @@
         <v>4554.1087456793903</v>
       </c>
       <c r="CD1" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="CE1">
         <v>23941.903379084</v>
@@ -14533,7 +14788,7 @@
         <v>4919.6662324793397</v>
       </c>
       <c r="CG1" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="CH1">
         <v>26426.017370894599</v>
@@ -14542,7 +14797,7 @@
         <v>4673.1256757332103</v>
       </c>
       <c r="CJ1" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="CK1">
         <v>30901.026736552602</v>
@@ -14551,7 +14806,7 @@
         <v>4472.8550343567804</v>
       </c>
       <c r="CM1" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="CN1">
         <v>26941.487458212901</v>
@@ -14560,7 +14815,7 @@
         <v>4666.9602745603897</v>
       </c>
       <c r="CP1" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="CQ1">
         <v>29380.252298404299</v>
@@ -14569,7 +14824,7 @@
         <v>4496.9829631660996</v>
       </c>
       <c r="CS1" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="CT1">
         <v>33019.335549564399</v>
@@ -14578,7 +14833,7 @@
         <v>4401.9951415738396</v>
       </c>
       <c r="CV1" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="CW1">
         <v>31421.872277556799</v>
@@ -14587,7 +14842,7 @@
         <v>4445.8347087244802</v>
       </c>
       <c r="CY1" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="CZ1">
         <v>30924.074406882599</v>
@@ -14596,7 +14851,7 @@
         <v>4448.6285481001896</v>
       </c>
       <c r="DB1" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="DC1">
         <v>29375.380996362001</v>
@@ -14605,7 +14860,7 @@
         <v>4520.0628929794402</v>
       </c>
       <c r="DE1" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="DF1">
         <v>30912.8929972933</v>
@@ -14614,7 +14869,7 @@
         <v>4463.9432440420496</v>
       </c>
       <c r="DH1" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="DI1">
         <v>29379.1474044883</v>
@@ -14623,7 +14878,7 @@
         <v>4498.2102651567302</v>
       </c>
       <c r="DK1" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="DL1">
         <v>26957.5213665499</v>
@@ -14632,7 +14887,7 @@
         <v>4649.5619643157597</v>
       </c>
       <c r="DN1" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="DO1">
         <v>26951.696582568398</v>
@@ -14641,7 +14896,7 @@
         <v>4661.3534900375498</v>
       </c>
       <c r="DQ1" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="DR1">
         <v>30919.081749852201</v>
@@ -14650,7 +14905,7 @@
         <v>4448.98897539479</v>
       </c>
       <c r="DT1" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="DU1">
         <v>23500.963212724098</v>
@@ -14659,7 +14914,7 @@
         <v>5045.2646932653997</v>
       </c>
       <c r="DW1" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="DX1">
         <v>31464.8826786758</v>
@@ -14668,7 +14923,7 @@
         <v>4425.3748520767003</v>
       </c>
       <c r="DZ1" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="EA1">
         <v>31444.6534048545</v>
@@ -14677,7 +14932,7 @@
         <v>4432.0110674945799</v>
       </c>
       <c r="EC1" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="ED1">
         <v>31442.729812996498</v>
@@ -14686,7 +14941,7 @@
         <v>4434.7945064902196</v>
       </c>
       <c r="EF1" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="EG1">
         <v>31426.994432914998</v>
@@ -14695,7 +14950,7 @@
         <v>4441.0902690793</v>
       </c>
       <c r="EI1" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="EJ1">
         <v>22752.6946925829</v>
@@ -14704,7 +14959,7 @@
         <v>5362.2710688650996</v>
       </c>
       <c r="EL1" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="EM1">
         <v>26960.8157089468</v>
@@ -14713,7 +14968,7 @@
         <v>4643.2603481081596</v>
       </c>
       <c r="EO1" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="EP1">
         <v>23500.575393519699</v>
@@ -14722,7 +14977,7 @@
         <v>5051.5281422676799</v>
       </c>
       <c r="ER1" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="ES1">
         <v>28885.103884246699</v>
@@ -14731,7 +14986,7 @@
         <v>4551.0980137414799</v>
       </c>
       <c r="EU1" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="EV1">
         <v>25415.586099713099</v>
@@ -14740,7 +14995,7 @@
         <v>4732.19192946153</v>
       </c>
       <c r="EX1" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="EY1">
         <v>31425.563070558699</v>
@@ -14749,7 +15004,7 @@
         <v>4443.0562457482201</v>
       </c>
       <c r="FA1" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="FB1">
         <v>31465.7434801571</v>
@@ -14758,7 +15013,7 @@
         <v>4422.1814462192096</v>
       </c>
       <c r="FD1" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="FE1">
         <v>33020.5992701008</v>
@@ -14767,7 +15022,7 @@
         <v>4400.2599264746405</v>
       </c>
       <c r="FG1" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="FH1">
         <v>25415.297346457301</v>
@@ -14796,7 +15051,7 @@
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:165" x14ac:dyDescent="0.55000000000000004">
@@ -14805,7 +15060,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="E4" t="str">
         <f>IF(B4=2,C4,"")</f>
@@ -14876,7 +15131,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -14927,7 +15182,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -14978,7 +15233,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -15029,7 +15284,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -15080,7 +15335,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -15131,7 +15386,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -15182,7 +15437,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -15233,7 +15488,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -15284,7 +15539,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -15335,7 +15590,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -15386,7 +15641,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -15437,7 +15692,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -15488,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -15539,7 +15794,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -15590,7 +15845,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
@@ -15641,7 +15896,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -15692,7 +15947,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -15743,7 +15998,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
@@ -15794,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -15845,7 +16100,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
@@ -15896,7 +16151,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="0"/>
@@ -15947,7 +16202,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="3"/>
@@ -15998,7 +16253,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="3"/>
@@ -16049,7 +16304,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="3"/>
@@ -16100,7 +16355,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="3"/>
@@ -16151,7 +16406,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="3"/>
@@ -16202,7 +16457,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="3"/>
@@ -16253,7 +16508,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="3"/>
@@ -16304,7 +16559,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="3"/>
@@ -16355,7 +16610,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="3"/>
@@ -16406,7 +16661,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="3"/>
@@ -16457,7 +16712,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="3"/>
@@ -16508,7 +16763,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="3"/>
@@ -16559,7 +16814,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="3"/>
@@ -16610,7 +16865,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="3"/>
@@ -16661,7 +16916,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="3"/>
@@ -16712,7 +16967,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="3"/>
@@ -16763,7 +17018,7 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="3"/>
@@ -16814,7 +17069,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="3"/>
@@ -16865,7 +17120,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="3"/>
@@ -16878,7 +17133,7 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B125">
-        <f t="shared" ref="B125:B188" si="6">IF(B124&lt;3,B124+1,1)</f>
+        <f t="shared" ref="B125:B168" si="6">IF(B124&lt;3,B124+1,1)</f>
         <v>2</v>
       </c>
       <c r="C125">
@@ -16916,7 +17171,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="3"/>
@@ -16967,7 +17222,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="3"/>
@@ -17018,7 +17273,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" ref="E133:E168" si="7">IF(B133=2,C133,"")</f>
@@ -17069,7 +17324,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="7"/>
@@ -17120,7 +17375,7 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="7"/>
@@ -17171,7 +17426,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="7"/>
@@ -17222,7 +17477,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="7"/>
@@ -17273,7 +17528,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="7"/>
@@ -17324,7 +17579,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="7"/>
@@ -17375,7 +17630,7 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="7"/>
@@ -17426,7 +17681,7 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="7"/>
@@ -17477,7 +17732,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="7"/>
@@ -17528,7 +17783,7 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="7"/>
@@ -17579,7 +17834,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="7"/>
@@ -17645,7 +17900,7 @@
   <sheetData>
     <row r="1" spans="1:162" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B1">
         <v>22484.495695334801</v>
@@ -17654,7 +17909,7 @@
         <v>5297.1361346772401</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="E1">
         <v>30849.373831803401</v>
@@ -17663,7 +17918,7 @@
         <v>4371.6257891836804</v>
       </c>
       <c r="G1" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="H1">
         <v>27830.075561948401</v>
@@ -17672,7 +17927,7 @@
         <v>4560.5986183366504</v>
       </c>
       <c r="J1" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="K1">
         <v>28368.558806181201</v>
@@ -17681,7 +17936,7 @@
         <v>4530.1886529467902</v>
       </c>
       <c r="M1" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="N1">
         <v>23451.405009390099</v>
@@ -17690,7 +17945,7 @@
         <v>5113.6006180853601</v>
       </c>
       <c r="P1" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="Q1">
         <v>29388.139311930099</v>
@@ -17699,7 +17954,7 @@
         <v>4478.0718378306301</v>
       </c>
       <c r="S1" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="T1">
         <v>27489.5838476149</v>
@@ -17708,7 +17963,7 @@
         <v>4677.8186992847004</v>
       </c>
       <c r="V1" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="W1">
         <v>26912.965522893701</v>
@@ -17717,7 +17972,7 @@
         <v>4737.8823062697302</v>
       </c>
       <c r="Y1" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="Z1">
         <v>24954.6306475692</v>
@@ -17726,7 +17981,7 @@
         <v>4963.0225201097101</v>
       </c>
       <c r="AB1" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="AC1">
         <v>26458.833116558901</v>
@@ -17735,7 +17990,7 @@
         <v>4800.2835351391104</v>
       </c>
       <c r="AE1" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="AF1">
         <v>23015.681985697702</v>
@@ -17744,7 +17999,7 @@
         <v>5176.3352800717503</v>
       </c>
       <c r="AH1" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="AI1">
         <v>25459.3321833101</v>
@@ -17753,7 +18008,7 @@
         <v>4912.9651690844903</v>
       </c>
       <c r="AK1" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="AL1">
         <v>27470.261902816801</v>
@@ -17762,7 +18017,7 @@
         <v>4685.18433034393</v>
       </c>
       <c r="AN1" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="AO1">
         <v>22834.755980181901</v>
@@ -17771,7 +18026,7 @@
         <v>5280.7647015109496</v>
       </c>
       <c r="AQ1" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="AR1">
         <v>30327.925754418698</v>
@@ -17780,7 +18035,7 @@
         <v>4402.6658429140498</v>
       </c>
       <c r="AT1" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="AU1">
         <v>22924.3963221755</v>
@@ -17789,7 +18044,7 @@
         <v>5229.6968164440304</v>
       </c>
       <c r="AW1" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="AX1">
         <v>27000.1864735688</v>
@@ -17798,7 +18053,7 @@
         <v>4725.97214865966</v>
       </c>
       <c r="AZ1" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="BA1">
         <v>30315.368838512499</v>
@@ -17807,7 +18062,7 @@
         <v>4430.2522566471798</v>
       </c>
       <c r="BC1" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="BD1">
         <v>28861.565160762199</v>
@@ -17816,7 +18071,7 @@
         <v>4504.1465152521096</v>
       </c>
       <c r="BF1" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="BG1">
         <v>28873.284048186499</v>
@@ -17825,7 +18080,7 @@
         <v>4501.3463890126504</v>
       </c>
       <c r="BI1" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="BJ1">
         <v>25836.0939800983</v>
@@ -17834,7 +18089,7 @@
         <v>4858.0829500401796</v>
       </c>
       <c r="BL1" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="BM1">
         <v>25500.049540726901</v>
@@ -17843,7 +18098,7 @@
         <v>4895.03487739095</v>
       </c>
       <c r="BO1" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="BP1">
         <v>25984.895664492899</v>
@@ -17852,7 +18107,7 @@
         <v>4843.2847886235004</v>
       </c>
       <c r="BR1" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="BS1">
         <v>29820.078524895998</v>
@@ -17861,7 +18116,7 @@
         <v>4446.1845887450199</v>
       </c>
       <c r="BU1" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="BV1">
         <v>24903.5686433788</v>
@@ -17870,7 +18125,7 @@
         <v>5000.2305447308499</v>
       </c>
       <c r="BX1" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="BY1">
         <v>29822.646599546599</v>
@@ -17879,7 +18134,7 @@
         <v>4444.8943606780304</v>
       </c>
       <c r="CA1" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="CB1">
         <v>26449.044917409701</v>
@@ -17888,7 +18143,7 @@
         <v>4834.4298917834203</v>
       </c>
       <c r="CD1" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="CE1">
         <v>24164.732123722999</v>
@@ -17897,7 +18152,7 @@
         <v>5087.3841349756103</v>
       </c>
       <c r="CG1" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="CH1">
         <v>23917.293300726298</v>
@@ -17906,7 +18161,7 @@
         <v>5111.8911932087503</v>
       </c>
       <c r="CJ1" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="CK1">
         <v>24555.222487258499</v>
@@ -17915,7 +18170,7 @@
         <v>5016.7224296927998</v>
       </c>
       <c r="CM1" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="CN1">
         <v>22930.7902956408</v>
@@ -17924,7 +18179,7 @@
         <v>5196.3170842897698</v>
       </c>
       <c r="CP1" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="CQ1">
         <v>24452.5543249285</v>
@@ -17933,7 +18188,7 @@
         <v>5080.8408079432902</v>
       </c>
       <c r="CS1" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="CT1">
         <v>24924.112201023101</v>
@@ -17942,7 +18197,7 @@
         <v>4981.4406394122198</v>
       </c>
       <c r="CV1" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="CW1">
         <v>22529.822337989801</v>
@@ -17951,7 +18206,7 @@
         <v>5285.8025089270895</v>
       </c>
       <c r="CY1" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="CZ1">
         <v>24465.5766263183</v>
@@ -17960,7 +18215,7 @@
         <v>5049.0464635874196</v>
       </c>
       <c r="DB1" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="DC1">
         <v>24465.126263176899</v>
@@ -17969,7 +18224,7 @@
         <v>5070.4544186412604</v>
       </c>
       <c r="DE1" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="DF1">
         <v>25845.270127915799</v>
@@ -17978,7 +18233,7 @@
         <v>4848.9452177995099</v>
       </c>
       <c r="DH1" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="DI1">
         <v>23940.425749945101</v>
@@ -17987,7 +18242,7 @@
         <v>5092.4288048451599</v>
       </c>
       <c r="DK1" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="DL1">
         <v>22931.413095569798</v>
@@ -17996,7 +18251,7 @@
         <v>5176.8042091928701</v>
       </c>
       <c r="DN1" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="DO1">
         <v>30324.564507141298</v>
@@ -18005,7 +18260,7 @@
         <v>4408.7772668969001</v>
       </c>
       <c r="DQ1" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="DR1">
         <v>26458.143296546401</v>
@@ -18014,7 +18269,7 @@
         <v>4812.05958679787</v>
       </c>
       <c r="DT1" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="DU1">
         <v>24530.0449848922</v>
@@ -18023,7 +18278,7 @@
         <v>5036.2907373330199</v>
       </c>
       <c r="DW1" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="DX1">
         <v>26450.762167492001</v>
@@ -18032,7 +18287,7 @@
         <v>4825.40988249981</v>
       </c>
       <c r="DZ1" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="EA1">
         <v>24554.988498584298</v>
@@ -18041,7 +18296,7 @@
         <v>5018.9131320972501</v>
       </c>
       <c r="EC1" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="ED1">
         <v>26999.6814631985</v>
@@ -18050,7 +18305,7 @@
         <v>4730.8520165068703</v>
       </c>
       <c r="EF1" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="EG1">
         <v>24515.151117048099</v>
@@ -18059,7 +18314,7 @@
         <v>5039.5067658478602</v>
       </c>
       <c r="EI1" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="EJ1">
         <v>23921.7857530248</v>
@@ -18068,7 +18323,7 @@
         <v>5100.9512027316496</v>
       </c>
       <c r="EL1" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="EM1">
         <v>22513.048580404899</v>
@@ -18077,7 +18332,7 @@
         <v>5287.6400897711501</v>
       </c>
       <c r="EO1" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="EP1">
         <v>25489.159524624101</v>
@@ -18086,7 +18341,7 @@
         <v>4904.9967921678299</v>
       </c>
       <c r="ER1" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="ES1">
         <v>25489.276898744902</v>
@@ -18095,7 +18350,7 @@
         <v>4903.4285038879098</v>
       </c>
       <c r="EU1" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="EV1">
         <v>23933.762576446701</v>
@@ -18104,7 +18359,7 @@
         <v>5096.0889302881396</v>
       </c>
       <c r="EX1" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="EY1">
         <v>27482.317097236701</v>
@@ -18113,7 +18368,7 @@
         <v>4679.37219524376</v>
       </c>
       <c r="FA1" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="FB1">
         <v>26999.893297412</v>
@@ -18122,7 +18377,7 @@
         <v>4726.1245121393204</v>
       </c>
       <c r="FD1" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="FE1">
         <v>23936.6005661331</v>
@@ -18151,7 +18406,7 @@
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:162" x14ac:dyDescent="0.55000000000000004">
@@ -18160,7 +18415,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="E4" t="str">
         <f>IF(B4=2,C4,"")</f>
@@ -18231,7 +18486,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -18282,7 +18537,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -18333,7 +18588,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -18384,7 +18639,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -18435,7 +18690,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -18486,7 +18741,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -18537,7 +18792,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -18588,7 +18843,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -18639,7 +18894,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -18690,7 +18945,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -18741,7 +18996,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -18792,7 +19047,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -18843,7 +19098,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -18894,7 +19149,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -18945,7 +19200,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
@@ -18996,7 +19251,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -19047,7 +19302,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -19098,7 +19353,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
@@ -19149,7 +19404,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -19200,7 +19455,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
@@ -19251,7 +19506,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="0"/>
@@ -19302,7 +19557,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="3"/>
@@ -19353,7 +19608,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="3"/>
@@ -19404,7 +19659,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="3"/>
@@ -19455,7 +19710,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="3"/>
@@ -19506,7 +19761,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="3"/>
@@ -19557,7 +19812,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="3"/>
@@ -19608,7 +19863,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="3"/>
@@ -19659,7 +19914,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="3"/>
@@ -19710,7 +19965,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="3"/>
@@ -19761,7 +20016,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="3"/>
@@ -19812,7 +20067,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="3"/>
@@ -19863,7 +20118,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="3"/>
@@ -19914,7 +20169,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="3"/>
@@ -19965,7 +20220,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="3"/>
@@ -20016,7 +20271,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="3"/>
@@ -20067,7 +20322,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="3"/>
@@ -20118,7 +20373,7 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="3"/>
@@ -20169,7 +20424,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="3"/>
@@ -20220,7 +20475,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="3"/>
@@ -20233,7 +20488,7 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B125">
-        <f t="shared" ref="B125:B188" si="6">IF(B124&lt;3,B124+1,1)</f>
+        <f t="shared" ref="B125:B165" si="6">IF(B124&lt;3,B124+1,1)</f>
         <v>2</v>
       </c>
       <c r="C125">
@@ -20271,7 +20526,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="3"/>
@@ -20322,7 +20577,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="3"/>
@@ -20373,14 +20628,14 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" ref="E133:E168" si="7">IF(B133=2,C133,"")</f>
+        <f t="shared" ref="E133:E165" si="7">IF(B133=2,C133,"")</f>
         <v/>
       </c>
       <c r="F133" t="str">
-        <f t="shared" ref="F133:F168" si="8">IF(B133=3,C133,"")</f>
+        <f t="shared" ref="F133:F165" si="8">IF(B133=3,C133,"")</f>
         <v/>
       </c>
     </row>
@@ -20424,7 +20679,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="7"/>
@@ -20475,7 +20730,7 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="7"/>
@@ -20526,7 +20781,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="7"/>
@@ -20577,7 +20832,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="7"/>
@@ -20628,7 +20883,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="7"/>
@@ -20679,7 +20934,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="7"/>
@@ -20730,7 +20985,7 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="7"/>
@@ -20781,7 +21036,7 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="7"/>
@@ -20832,7 +21087,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="7"/>
@@ -20883,7 +21138,7 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="7"/>
@@ -20937,8 +21192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087D2BDC-E0FE-462F-8F9F-250DE390ABA0}">
   <dimension ref="A1:GD189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -20950,7 +21205,7 @@
   <sheetData>
     <row r="1" spans="1:186" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="B1">
         <v>22390.3036409331</v>
@@ -20959,7 +21214,7 @@
         <v>5172.5432935293102</v>
       </c>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="E1">
         <v>40650.9490101189</v>
@@ -20977,7 +21232,7 @@
         <v>4115.3076823718802</v>
       </c>
       <c r="J1" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="K1">
         <v>36975.143622444302</v>
@@ -20986,7 +21241,7 @@
         <v>4134.48917103859</v>
       </c>
       <c r="M1" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="N1">
         <v>35949.365282275001</v>
@@ -20995,7 +21250,7 @@
         <v>4176.3941392565603</v>
       </c>
       <c r="P1" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="Q1">
         <v>30726.148774499899</v>
@@ -21004,7 +21259,7 @@
         <v>4262.5855089077104</v>
       </c>
       <c r="S1" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="T1">
         <v>33835.8676109601</v>
@@ -21013,7 +21268,7 @@
         <v>4181.3651676435102</v>
       </c>
       <c r="V1" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="W1">
         <v>24806.0779116831</v>
@@ -21022,7 +21277,7 @@
         <v>4777.5574915182697</v>
       </c>
       <c r="Y1" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="Z1">
         <v>31223.382294823299</v>
@@ -21031,7 +21286,7 @@
         <v>4206.0875412912801</v>
       </c>
       <c r="AB1" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="AC1">
         <v>25250.0518977217</v>
@@ -21040,7 +21295,7 @@
         <v>4674.8247238640297</v>
       </c>
       <c r="AE1" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="AF1">
         <v>29680.4053808795</v>
@@ -21049,7 +21304,7 @@
         <v>4296.4936661584397</v>
       </c>
       <c r="AH1" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="AI1">
         <v>26243.529134316599</v>
@@ -21058,7 +21313,7 @@
         <v>4523.6683910832799</v>
       </c>
       <c r="AK1" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="AL1">
         <v>32258.606814292001</v>
@@ -21067,7 +21322,7 @@
         <v>4195.51926725461</v>
       </c>
       <c r="AN1" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="AO1">
         <v>22852.1709968695</v>
@@ -21076,7 +21331,7 @@
         <v>5071.3883912406</v>
       </c>
       <c r="AQ1" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="AR1">
         <v>25743.083848571099</v>
@@ -21094,7 +21349,7 @@
         <v>4473.4513119450803</v>
       </c>
       <c r="AW1" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="AX1">
         <v>28257.059707042899</v>
@@ -21103,7 +21358,7 @@
         <v>4369.2133720577103</v>
       </c>
       <c r="AZ1" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="BA1">
         <v>33296.611803518899</v>
@@ -21112,7 +21367,7 @@
         <v>4185.8354641859996</v>
       </c>
       <c r="BC1" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="BD1">
         <v>36443.794065022201</v>
@@ -21121,7 +21376,7 @@
         <v>4143.56525211391</v>
       </c>
       <c r="BF1" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="BG1">
         <v>23381.359292626701</v>
@@ -21130,7 +21385,7 @@
         <v>4941.2839233841496</v>
       </c>
       <c r="BI1" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="BJ1">
         <v>22522.941776017102</v>
@@ -21139,7 +21394,7 @@
         <v>5137.1622841237004</v>
       </c>
       <c r="BL1" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="BM1">
         <v>27216.976804707399</v>
@@ -21148,7 +21403,7 @@
         <v>4423.1784460292201</v>
       </c>
       <c r="BO1" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="BP1">
         <v>27727.471770271201</v>
@@ -21157,7 +21412,7 @@
         <v>4377.7585129636</v>
       </c>
       <c r="BR1" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="BS1">
         <v>27217.232928683599</v>
@@ -21166,7 +21421,7 @@
         <v>4421.2177086279698</v>
       </c>
       <c r="BU1" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="BV1">
         <v>29213.621487808399</v>
@@ -21175,7 +21430,7 @@
         <v>4354.1411736466498</v>
       </c>
       <c r="BX1" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="BY1">
         <v>23381.0844171934</v>
@@ -21184,7 +21439,7 @@
         <v>4984.3993339947701</v>
       </c>
       <c r="CA1" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="CB1">
         <v>23805.9672342831</v>
@@ -21193,7 +21448,7 @@
         <v>4870.8354219344801</v>
       </c>
       <c r="CD1" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="CE1">
         <v>29252.440010799899</v>
@@ -21202,7 +21457,7 @@
         <v>4330.8882704164998</v>
       </c>
       <c r="CG1" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="CH1">
         <v>23307.941719788399</v>
@@ -21211,7 +21466,7 @@
         <v>5010.1040105622096</v>
       </c>
       <c r="CJ1" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="CK1">
         <v>25260.055794301501</v>
@@ -21220,7 +21475,7 @@
         <v>4643.0306100696398</v>
       </c>
       <c r="CM1" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="CN1">
         <v>23749.709596028701</v>
@@ -21229,7 +21484,7 @@
         <v>4905.2882733852703</v>
       </c>
       <c r="CP1" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="CQ1">
         <v>25727.290542868101</v>
@@ -21238,7 +21493,7 @@
         <v>4612.2085844703797</v>
       </c>
       <c r="CS1" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="CT1">
         <v>26773.126115459901</v>
@@ -21247,7 +21502,7 @@
         <v>4512.9575936208403</v>
       </c>
       <c r="CV1" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="CW1">
         <v>24224.4301922821</v>
@@ -21256,7 +21511,7 @@
         <v>4854.0562845898103</v>
       </c>
       <c r="CY1" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="CZ1">
         <v>22911.730533025398</v>
@@ -21265,7 +21520,7 @@
         <v>5037.2686650492196</v>
       </c>
       <c r="DB1" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="DC1">
         <v>22945.4233270482</v>
@@ -21274,7 +21529,7 @@
         <v>5022.4271913276498</v>
       </c>
       <c r="DE1" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="DF1">
         <v>26772.085740454899</v>
@@ -21283,7 +21538,7 @@
         <v>4522.4418322086804</v>
       </c>
       <c r="DH1" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="DI1">
         <v>24316.518056946799</v>
@@ -21292,7 +21547,7 @@
         <v>4784.0836020790202</v>
       </c>
       <c r="DK1" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="DL1">
         <v>27732.529550383901</v>
@@ -21301,7 +21556,7 @@
         <v>4375.2582016646302</v>
       </c>
       <c r="DN1" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="DO1">
         <v>25259.312942918801</v>
@@ -21310,7 +21565,7 @@
         <v>4648.3212579760302</v>
       </c>
       <c r="DQ1" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="DR1">
         <v>24289.170670330601</v>
@@ -21319,7 +21574,7 @@
         <v>4810.9038820455498</v>
       </c>
       <c r="DT1" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="DU1">
         <v>23788.140210498001</v>
@@ -21328,7 +21583,7 @@
         <v>4895.0542939423203</v>
       </c>
       <c r="DW1" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="DX1">
         <v>24277.8339980565</v>
@@ -21337,7 +21592,7 @@
         <v>4833.7744768805096</v>
       </c>
       <c r="DZ1" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="EA1">
         <v>24298.736765354301</v>
@@ -21346,7 +21601,7 @@
         <v>4803.8818320135897</v>
       </c>
       <c r="EC1" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="ED1">
         <v>24314.686665978599</v>
@@ -21355,7 +21610,7 @@
         <v>4789.4054993974596</v>
       </c>
       <c r="EF1" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="EG1">
         <v>22912.7611590083</v>
@@ -21364,7 +21619,7 @@
         <v>5029.5090216071003</v>
       </c>
       <c r="EI1" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="EJ1">
         <v>22394.2207719213</v>
@@ -21373,7 +21628,7 @@
         <v>5160.8033830924196</v>
       </c>
       <c r="EL1" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="EM1">
         <v>24233.2177926677</v>
@@ -21382,7 +21637,7 @@
         <v>4849.2004212032798</v>
       </c>
       <c r="EO1" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="EP1">
         <v>24238.488553229301</v>
@@ -21391,7 +21646,7 @@
         <v>4838.6773797651404</v>
       </c>
       <c r="ER1" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="ES1">
         <v>22514.272137075499</v>
@@ -21400,7 +21655,7 @@
         <v>5146.0492553157401</v>
       </c>
       <c r="EU1" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="EV1">
         <v>29222.439697982001</v>
@@ -21409,7 +21664,7 @@
         <v>4342.6300024476604</v>
       </c>
       <c r="EX1" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="EY1">
         <v>22449.844793971301</v>
@@ -21418,7 +21673,7 @@
         <v>5153.5401923650197</v>
       </c>
       <c r="FA1" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="FB1">
         <v>29213.657012350301</v>
@@ -21427,7 +21682,7 @@
         <v>4351.3460412867098</v>
       </c>
       <c r="FD1" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="FE1">
         <v>22522.5839971284</v>
@@ -21436,7 +21691,7 @@
         <v>5142.3106679257098</v>
       </c>
       <c r="FG1" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="FH1">
         <v>22396.761195110201</v>
@@ -21445,7 +21700,7 @@
         <v>5156.6440258442999</v>
       </c>
       <c r="FJ1" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="FK1">
         <v>23776.281804340499</v>
@@ -21454,7 +21709,7 @@
         <v>4901.4531779228901</v>
       </c>
       <c r="FM1" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="FN1">
         <v>29228.767171219901</v>
@@ -21463,7 +21718,7 @@
         <v>4335.0622920463002</v>
       </c>
       <c r="FP1" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="FQ1">
         <v>29225.814498764299</v>
@@ -21472,7 +21727,7 @@
         <v>4337.6070426440301</v>
       </c>
       <c r="FS1" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="FT1">
         <v>24239.331263755601</v>
@@ -21481,7 +21736,7 @@
         <v>4833.8217352381498</v>
       </c>
       <c r="FV1" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="FW1">
         <v>23783.358018111099</v>
@@ -21490,7 +21745,7 @@
         <v>4898.9740518378703</v>
       </c>
       <c r="FY1" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="FZ1">
         <v>22448.5571980678</v>
@@ -21499,7 +21754,7 @@
         <v>5155.4981583280396</v>
       </c>
       <c r="GB1" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="GC1">
         <v>27729.192040949602</v>
@@ -21528,7 +21783,7 @@
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:186" x14ac:dyDescent="0.55000000000000004">
@@ -21537,7 +21792,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="E4" t="str">
         <f>IF(B4=2,C4,"")</f>
@@ -21608,7 +21863,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -21710,7 +21965,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -21761,7 +22016,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -21812,7 +22067,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -21863,7 +22118,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -21914,7 +22169,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -21965,7 +22220,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -22016,7 +22271,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -22067,7 +22322,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -22118,7 +22373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -22169,7 +22424,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -22220,7 +22475,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -22271,7 +22526,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -22373,7 +22628,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -22424,7 +22679,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -22475,7 +22730,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
@@ -22526,7 +22781,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -22577,7 +22832,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
@@ -22628,7 +22883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="0"/>
@@ -22679,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="3"/>
@@ -22730,7 +22985,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="3"/>
@@ -22781,7 +23036,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="3"/>
@@ -22832,7 +23087,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="3"/>
@@ -22883,7 +23138,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="3"/>
@@ -22934,7 +23189,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="3"/>
@@ -22985,7 +23240,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="3"/>
@@ -23036,7 +23291,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="3"/>
@@ -23087,7 +23342,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="3"/>
@@ -23138,7 +23393,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="3"/>
@@ -23189,7 +23444,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="3"/>
@@ -23240,7 +23495,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="3"/>
@@ -23291,7 +23546,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="3"/>
@@ -23342,7 +23597,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="3"/>
@@ -23393,7 +23648,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="3"/>
@@ -23444,7 +23699,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="3"/>
@@ -23495,7 +23750,7 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="3"/>
@@ -23546,7 +23801,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="3"/>
@@ -23597,7 +23852,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="3"/>
@@ -23648,7 +23903,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="3"/>
@@ -23699,7 +23954,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="3"/>
@@ -23750,7 +24005,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" ref="E133:E189" si="7">IF(B133=2,C133,"")</f>
@@ -23801,7 +24056,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="7"/>
@@ -23852,7 +24107,7 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="7"/>
@@ -23903,7 +24158,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="7"/>
@@ -23954,7 +24209,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="7"/>
@@ -24005,7 +24260,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="7"/>
@@ -24056,7 +24311,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="7"/>
@@ -24107,7 +24362,7 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="7"/>
@@ -24158,7 +24413,7 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="7"/>
@@ -24209,7 +24464,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="7"/>
@@ -24260,7 +24515,7 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="7"/>
@@ -24311,7 +24566,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="7"/>
@@ -24362,7 +24617,7 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="7"/>
@@ -24413,7 +24668,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="7"/>
@@ -24464,7 +24719,7 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="7"/>
@@ -24515,7 +24770,7 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="7"/>
@@ -24566,7 +24821,7 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="7"/>
@@ -24617,7 +24872,7 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" si="7"/>
@@ -24668,7 +24923,7 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="7"/>
